--- a/teaching/traditional_assets/database/data/latvia/latvia_construction_supplies.xlsx
+++ b/teaching/traditional_assets/database/data/latvia/latvia_construction_supplies.xlsx
@@ -8,6 +8,8 @@
   </bookViews>
   <sheets>
     <sheet name="earnings_debt" sheetId="1" r:id="rId1"/>
+    <sheet name="cost_capital" sheetId="2" r:id="rId2"/>
+    <sheet name="rise_rkb1r" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -591,25 +593,25 @@
         </is>
       </c>
       <c r="D2">
-        <v>-0.416</v>
+        <v>-0.5639999999999999</v>
       </c>
       <c r="G2">
-        <v>-1.113821138211382</v>
+        <v>18.52090032154341</v>
       </c>
       <c r="H2">
-        <v>-1.113821138211382</v>
+        <v>18.52090032154341</v>
       </c>
       <c r="I2">
-        <v>-1.235772357723577</v>
+        <v>15.7556270096463</v>
       </c>
       <c r="J2">
-        <v>-1.235772357723577</v>
+        <v>15.7556270096463</v>
       </c>
       <c r="K2">
-        <v>-7.13</v>
+        <v>-0.925</v>
       </c>
       <c r="L2">
-        <v>-1.932249322493225</v>
+        <v>-2.97427652733119</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -633,73 +635,73 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>0.018</v>
+        <v>0.795</v>
       </c>
       <c r="V2">
-        <v>0.01058823529411765</v>
+        <v>0.5063694267515924</v>
       </c>
       <c r="W2">
-        <v>-0.19375</v>
+        <v>-0.04322429906542057</v>
       </c>
       <c r="X2">
-        <v>0.3025500573255418</v>
+        <v>0.1785933309396296</v>
       </c>
       <c r="Y2">
-        <v>-0.4963000573255418</v>
+        <v>-0.2218176300050501</v>
       </c>
       <c r="Z2">
-        <v>0.0830389090172604</v>
+        <v>0.01055346296107774</v>
       </c>
       <c r="AA2">
-        <v>-0.1026171883790535</v>
+        <v>0.1662764260748583</v>
       </c>
       <c r="AB2">
-        <v>0.1212139498467104</v>
+        <v>0.07372912527787112</v>
       </c>
       <c r="AC2">
-        <v>-0.2238311382257639</v>
+        <v>0.09254730079698723</v>
       </c>
       <c r="AD2">
-        <v>7.74</v>
+        <v>3.99</v>
       </c>
       <c r="AE2">
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>7.74</v>
+        <v>3.99</v>
       </c>
       <c r="AG2">
-        <v>7.722</v>
+        <v>3.195</v>
       </c>
       <c r="AH2">
-        <v>0.8199152542372882</v>
+        <v>0.7176258992805755</v>
       </c>
       <c r="AI2">
-        <v>0.2731122088920254</v>
+        <v>0.2405063291139241</v>
       </c>
       <c r="AJ2">
-        <v>0.8195712163022713</v>
+        <v>0.670514165792235</v>
       </c>
       <c r="AK2">
-        <v>0.2726502365652143</v>
+        <v>0.2022792022792023</v>
       </c>
       <c r="AL2">
-        <v>0.481</v>
+        <v>0.044</v>
       </c>
       <c r="AM2">
-        <v>0.396</v>
+        <v>0.043</v>
       </c>
       <c r="AN2">
-        <v>-2.097560975609756</v>
+        <v>0.6927083333333334</v>
       </c>
       <c r="AO2">
-        <v>-9.48024948024948</v>
+        <v>111.3636363636364</v>
       </c>
       <c r="AP2">
-        <v>-2.092682926829268</v>
+        <v>0.5546875000000001</v>
       </c>
       <c r="AQ2">
-        <v>-11.51515151515152</v>
+        <v>113.953488372093</v>
       </c>
     </row>
     <row r="3">
@@ -719,25 +721,25 @@
         </is>
       </c>
       <c r="D3">
-        <v>-0.416</v>
+        <v>-0.5639999999999999</v>
       </c>
       <c r="G3">
-        <v>-1.113821138211382</v>
+        <v>18.52090032154341</v>
       </c>
       <c r="H3">
-        <v>-1.113821138211382</v>
+        <v>18.52090032154341</v>
       </c>
       <c r="I3">
-        <v>-1.235772357723577</v>
+        <v>15.7556270096463</v>
       </c>
       <c r="J3">
-        <v>-1.235772357723577</v>
+        <v>15.7556270096463</v>
       </c>
       <c r="K3">
-        <v>-7.13</v>
+        <v>-0.925</v>
       </c>
       <c r="L3">
-        <v>-1.932249322493225</v>
+        <v>-2.97427652733119</v>
       </c>
       <c r="M3">
         <v>-0</v>
@@ -761,73 +763,8791 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>0.018</v>
+        <v>0.795</v>
       </c>
       <c r="V3">
-        <v>0.01058823529411765</v>
+        <v>0.5063694267515924</v>
       </c>
       <c r="W3">
-        <v>-0.19375</v>
+        <v>-0.04322429906542057</v>
       </c>
       <c r="X3">
-        <v>0.3025500573255418</v>
+        <v>0.1785933309396296</v>
       </c>
       <c r="Y3">
-        <v>-0.4963000573255418</v>
+        <v>-0.2218176300050501</v>
       </c>
       <c r="Z3">
-        <v>0.0830389090172604</v>
+        <v>0.01055346296107774</v>
       </c>
       <c r="AA3">
-        <v>-0.1026171883790535</v>
+        <v>0.1662764260748583</v>
       </c>
       <c r="AB3">
-        <v>0.1212139498467104</v>
+        <v>0.07372912527787112</v>
       </c>
       <c r="AC3">
-        <v>-0.2238311382257639</v>
+        <v>0.09254730079698723</v>
       </c>
       <c r="AD3">
-        <v>7.74</v>
+        <v>3.99</v>
       </c>
       <c r="AE3">
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>7.74</v>
+        <v>3.99</v>
       </c>
       <c r="AG3">
-        <v>7.722</v>
+        <v>3.195</v>
       </c>
       <c r="AH3">
-        <v>0.8199152542372882</v>
+        <v>0.7176258992805755</v>
       </c>
       <c r="AI3">
-        <v>0.2731122088920254</v>
+        <v>0.2405063291139241</v>
       </c>
       <c r="AJ3">
-        <v>0.8195712163022713</v>
+        <v>0.670514165792235</v>
       </c>
       <c r="AK3">
-        <v>0.2726502365652143</v>
+        <v>0.2022792022792023</v>
       </c>
       <c r="AL3">
-        <v>0.481</v>
+        <v>0.044</v>
       </c>
       <c r="AM3">
-        <v>0.396</v>
+        <v>0.043</v>
       </c>
       <c r="AN3">
-        <v>-2.097560975609756</v>
+        <v>0.6927083333333334</v>
       </c>
       <c r="AO3">
-        <v>-9.48024948024948</v>
+        <v>111.3636363636364</v>
       </c>
       <c r="AP3">
-        <v>-2.092682926829268</v>
+        <v>0.5546875000000001</v>
       </c>
       <c r="AQ3">
-        <v>-11.51515151515152</v>
+        <v>113.953488372093</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AQ2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>company_name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>exchange_ticker</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>industry_group</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>country</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>actual_debt_capital</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_debt_capital</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>actual_equity_value</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_equity_value</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>actual_enterprise_value</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_enterprise_value</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>actual_debt</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_debt</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>actual_cost_capital</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_cost_capital</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>actual_cost_debt_after_tax</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_cost_debt_after_tax</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>actual_debt_rating</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_debt_rating</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>actual_cost_equity</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_cost_equity</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>actual_beta</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_beta</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_ratio</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_error</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>country_default_spread</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>risk_free</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>market_capitalization</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>estimated_risk_premium</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>estimated_cost_debt_pre_tax</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>marginal_tax_rate</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>deductions_max_percentage</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>deductions_method</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>adjusted_ebitda</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>adjusted_depreciation</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>reported_capital_spending</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>adjusted_debt</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>estimated_mv_debt</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>reported_interest_expense</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>reported_bv_debt</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>reported_cash</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>flag_bankruptcy</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>flag_refinanced</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>rating_firm_type</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>AS Rigas kugu buvetava (RISE:RKB1R)</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>RISE:RKB1R</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Construction Supplies</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Latvia</t>
+        </is>
+      </c>
+      <c r="E2">
+        <v>0.717625899280576</v>
+      </c>
+      <c r="F2">
+        <v>0.99</v>
+      </c>
+      <c r="G2">
+        <v>1.57</v>
+      </c>
+      <c r="H2">
+        <v>0.218777529215386</v>
+      </c>
+      <c r="I2">
+        <v>4.765</v>
+      </c>
+      <c r="J2">
+        <v>4.92817752921539</v>
+      </c>
+      <c r="K2">
+        <v>3.99</v>
+      </c>
+      <c r="L2">
+        <v>5.5044</v>
+      </c>
+      <c r="M2">
+        <v>0.07372912527787109</v>
+      </c>
+      <c r="N2">
+        <v>0.0576869457201439</v>
+      </c>
+      <c r="O2">
+        <v>0.0324667686640965</v>
+      </c>
+      <c r="P2">
+        <v>0.01296</v>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="S2">
+        <v>0.17859333093963</v>
+      </c>
+      <c r="T2">
+        <v>4.48565457201438</v>
+      </c>
+      <c r="U2">
+        <v>2.87813095216098</v>
+      </c>
+      <c r="V2">
+        <v>76.1018439123053</v>
+      </c>
+      <c r="W2">
+        <v>54.95042798533339</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <v>0.009299999999999999</v>
+      </c>
+      <c r="AA2">
+        <v>1.57</v>
+      </c>
+      <c r="AB2">
+        <v>0.05882057965865632</v>
+      </c>
+      <c r="AC2">
+        <v>0.04058346083012063</v>
+      </c>
+      <c r="AD2">
+        <v>0.2</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
+      </c>
+      <c r="AF2">
+        <v>1</v>
+      </c>
+      <c r="AG2">
+        <v>5.76</v>
+      </c>
+      <c r="AH2">
+        <v>0.8599999999999994</v>
+      </c>
+      <c r="AI2">
+        <v>0.8619999999999992</v>
+      </c>
+      <c r="AJ2">
+        <v>3.99</v>
+      </c>
+      <c r="AK2">
+        <v>3.99</v>
+      </c>
+      <c r="AL2">
+        <v>0.044</v>
+      </c>
+      <c r="AM2">
+        <v>3.99</v>
+      </c>
+      <c r="AN2">
+        <v>0.795</v>
+      </c>
+      <c r="AO2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AQ2">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:Z101"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>debt_capital</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>cost_capital</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>equity_value</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>enterprise_value</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>debt_issued</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>debt</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>cash</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>marketcap</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>drop_ebitda</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>ebitda</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>depreciation</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>ebit</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>interest_expense</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>taxable_income</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>taxes</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>net_income</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>operating_cash_flow</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>debt_equity</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>cost_equity</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>beta</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>cost_debt_pre_tax</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>tax_rate</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>cost_debt_after_tax</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>debt_rating</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_ratio</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_error</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0.06511489491289761</v>
+      </c>
+      <c r="C2">
+        <v>5.646254381499412</v>
+      </c>
+      <c r="D2">
+        <v>4.851254381499412</v>
+      </c>
+      <c r="E2">
+        <v>-3.99</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0.795</v>
+      </c>
+      <c r="H2">
+        <v>1.57</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>5.76</v>
+      </c>
+      <c r="K2">
+        <v>0.8599999999999994</v>
+      </c>
+      <c r="L2">
+        <v>4.9</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>4.9</v>
+      </c>
+      <c r="O2">
+        <v>0.9800000000000001</v>
+      </c>
+      <c r="P2">
+        <v>3.92</v>
+      </c>
+      <c r="Q2">
+        <v>4.779999999999999</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0.06511489491289761</v>
+      </c>
+      <c r="T2">
+        <v>0.9489007969115385</v>
+      </c>
+      <c r="U2">
+        <v>0.0162</v>
+      </c>
+      <c r="V2">
+        <v>0.2</v>
+      </c>
+      <c r="W2">
+        <v>0.01296</v>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y2">
+        <v>10000000</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3">
+        <v>0.01</v>
+      </c>
+      <c r="B3">
+        <v>0.06503986512307181</v>
+      </c>
+      <c r="C3">
+        <v>5.591419375510286</v>
+      </c>
+      <c r="D3">
+        <v>4.852019375510286</v>
+      </c>
+      <c r="E3">
+        <v>-3.9344</v>
+      </c>
+      <c r="F3">
+        <v>0.0556</v>
+      </c>
+      <c r="G3">
+        <v>0.795</v>
+      </c>
+      <c r="H3">
+        <v>1.57</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>5.76</v>
+      </c>
+      <c r="K3">
+        <v>0.8599999999999994</v>
+      </c>
+      <c r="L3">
+        <v>4.9</v>
+      </c>
+      <c r="M3">
+        <v>0.00090072</v>
+      </c>
+      <c r="N3">
+        <v>4.899099280000001</v>
+      </c>
+      <c r="O3">
+        <v>0.9798198560000002</v>
+      </c>
+      <c r="P3">
+        <v>3.919279424</v>
+      </c>
+      <c r="Q3">
+        <v>4.779279424</v>
+      </c>
+      <c r="R3">
+        <v>0.0101010101010101</v>
+      </c>
+      <c r="S3">
+        <v>0.06556592436673921</v>
+      </c>
+      <c r="T3">
+        <v>0.9565686821391065</v>
+      </c>
+      <c r="U3">
+        <v>0.0162</v>
+      </c>
+      <c r="V3">
+        <v>0.2</v>
+      </c>
+      <c r="W3">
+        <v>0.01296</v>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y3">
+        <v>5440.092370548006</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4">
+        <v>0.02</v>
+      </c>
+      <c r="B4">
+        <v>0.06496483533324603</v>
+      </c>
+      <c r="C4">
+        <v>5.53658461082293</v>
+      </c>
+      <c r="D4">
+        <v>4.85278461082293</v>
+      </c>
+      <c r="E4">
+        <v>-3.8788</v>
+      </c>
+      <c r="F4">
+        <v>0.1112</v>
+      </c>
+      <c r="G4">
+        <v>0.795</v>
+      </c>
+      <c r="H4">
+        <v>1.57</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>5.76</v>
+      </c>
+      <c r="K4">
+        <v>0.8599999999999994</v>
+      </c>
+      <c r="L4">
+        <v>4.9</v>
+      </c>
+      <c r="M4">
+        <v>0.00180144</v>
+      </c>
+      <c r="N4">
+        <v>4.89819856</v>
+      </c>
+      <c r="O4">
+        <v>0.979639712</v>
+      </c>
+      <c r="P4">
+        <v>3.918558848</v>
+      </c>
+      <c r="Q4">
+        <v>4.778558847999999</v>
+      </c>
+      <c r="R4">
+        <v>0.02040816326530612</v>
+      </c>
+      <c r="S4">
+        <v>0.06602615850331227</v>
+      </c>
+      <c r="T4">
+        <v>0.9643930548202982</v>
+      </c>
+      <c r="U4">
+        <v>0.0162</v>
+      </c>
+      <c r="V4">
+        <v>0.2</v>
+      </c>
+      <c r="W4">
+        <v>0.01296</v>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y4">
+        <v>2720.046185274003</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5">
+        <v>0.03</v>
+      </c>
+      <c r="B5">
+        <v>0.06488980554342022</v>
+      </c>
+      <c r="C5">
+        <v>5.481750087551531</v>
+      </c>
+      <c r="D5">
+        <v>4.853550087551532</v>
+      </c>
+      <c r="E5">
+        <v>-3.8232</v>
+      </c>
+      <c r="F5">
+        <v>0.1668</v>
+      </c>
+      <c r="G5">
+        <v>0.795</v>
+      </c>
+      <c r="H5">
+        <v>1.57</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>5.76</v>
+      </c>
+      <c r="K5">
+        <v>0.8599999999999994</v>
+      </c>
+      <c r="L5">
+        <v>4.9</v>
+      </c>
+      <c r="M5">
+        <v>0.00270216</v>
+      </c>
+      <c r="N5">
+        <v>4.89729784</v>
+      </c>
+      <c r="O5">
+        <v>0.9794595680000001</v>
+      </c>
+      <c r="P5">
+        <v>3.917838272</v>
+      </c>
+      <c r="Q5">
+        <v>4.777838271999999</v>
+      </c>
+      <c r="R5">
+        <v>0.03092783505154639</v>
+      </c>
+      <c r="S5">
+        <v>0.06649588200352601</v>
+      </c>
+      <c r="T5">
+        <v>0.9723787547732672</v>
+      </c>
+      <c r="U5">
+        <v>0.0162</v>
+      </c>
+      <c r="V5">
+        <v>0.2</v>
+      </c>
+      <c r="W5">
+        <v>0.01296</v>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y5">
+        <v>1813.364123516002</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6">
+        <v>0.04</v>
+      </c>
+      <c r="B6">
+        <v>0.06481477575359443</v>
+      </c>
+      <c r="C6">
+        <v>5.426915805810354</v>
+      </c>
+      <c r="D6">
+        <v>4.854315805810354</v>
+      </c>
+      <c r="E6">
+        <v>-3.7676</v>
+      </c>
+      <c r="F6">
+        <v>0.2224</v>
+      </c>
+      <c r="G6">
+        <v>0.795</v>
+      </c>
+      <c r="H6">
+        <v>1.57</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>5.76</v>
+      </c>
+      <c r="K6">
+        <v>0.8599999999999994</v>
+      </c>
+      <c r="L6">
+        <v>4.9</v>
+      </c>
+      <c r="M6">
+        <v>0.00360288</v>
+      </c>
+      <c r="N6">
+        <v>4.89639712</v>
+      </c>
+      <c r="O6">
+        <v>0.9792794240000001</v>
+      </c>
+      <c r="P6">
+        <v>3.917117696</v>
+      </c>
+      <c r="Q6">
+        <v>4.777117695999999</v>
+      </c>
+      <c r="R6">
+        <v>0.04166666666666667</v>
+      </c>
+      <c r="S6">
+        <v>0.0669753914099942</v>
+      </c>
+      <c r="T6">
+        <v>0.9805308234752566</v>
+      </c>
+      <c r="U6">
+        <v>0.0162</v>
+      </c>
+      <c r="V6">
+        <v>0.2</v>
+      </c>
+      <c r="W6">
+        <v>0.01296</v>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y6">
+        <v>1360.023092637002</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7">
+        <v>0.05</v>
+      </c>
+      <c r="B7">
+        <v>0.06473974596376862</v>
+      </c>
+      <c r="C7">
+        <v>5.372081765713727</v>
+      </c>
+      <c r="D7">
+        <v>4.855081765713727</v>
+      </c>
+      <c r="E7">
+        <v>-3.712</v>
+      </c>
+      <c r="F7">
+        <v>0.278</v>
+      </c>
+      <c r="G7">
+        <v>0.795</v>
+      </c>
+      <c r="H7">
+        <v>1.57</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>5.76</v>
+      </c>
+      <c r="K7">
+        <v>0.8599999999999994</v>
+      </c>
+      <c r="L7">
+        <v>4.9</v>
+      </c>
+      <c r="M7">
+        <v>0.0045036</v>
+      </c>
+      <c r="N7">
+        <v>4.895496400000001</v>
+      </c>
+      <c r="O7">
+        <v>0.9790992800000002</v>
+      </c>
+      <c r="P7">
+        <v>3.916397120000001</v>
+      </c>
+      <c r="Q7">
+        <v>4.77639712</v>
+      </c>
+      <c r="R7">
+        <v>0.05263157894736843</v>
+      </c>
+      <c r="S7">
+        <v>0.0674649957513354</v>
+      </c>
+      <c r="T7">
+        <v>0.9888545146762348</v>
+      </c>
+      <c r="U7">
+        <v>0.0162</v>
+      </c>
+      <c r="V7">
+        <v>0.2</v>
+      </c>
+      <c r="W7">
+        <v>0.01296</v>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y7">
+        <v>1088.018474109601</v>
+      </c>
+      <c r="Z7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8">
+        <v>0.06</v>
+      </c>
+      <c r="B8">
+        <v>0.06466471617394284</v>
+      </c>
+      <c r="C8">
+        <v>5.317247967376057</v>
+      </c>
+      <c r="D8">
+        <v>4.855847967376056</v>
+      </c>
+      <c r="E8">
+        <v>-3.6564</v>
+      </c>
+      <c r="F8">
+        <v>0.3336</v>
+      </c>
+      <c r="G8">
+        <v>0.795</v>
+      </c>
+      <c r="H8">
+        <v>1.57</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>5.76</v>
+      </c>
+      <c r="K8">
+        <v>0.8599999999999994</v>
+      </c>
+      <c r="L8">
+        <v>4.9</v>
+      </c>
+      <c r="M8">
+        <v>0.00540432</v>
+      </c>
+      <c r="N8">
+        <v>4.89459568</v>
+      </c>
+      <c r="O8">
+        <v>0.978919136</v>
+      </c>
+      <c r="P8">
+        <v>3.915676544</v>
+      </c>
+      <c r="Q8">
+        <v>4.775676544</v>
+      </c>
+      <c r="R8">
+        <v>0.06382978723404255</v>
+      </c>
+      <c r="S8">
+        <v>0.06796501720632217</v>
+      </c>
+      <c r="T8">
+        <v>0.9973553056900001</v>
+      </c>
+      <c r="U8">
+        <v>0.0162</v>
+      </c>
+      <c r="V8">
+        <v>0.2</v>
+      </c>
+      <c r="W8">
+        <v>0.01296</v>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y8">
+        <v>906.6820617580011</v>
+      </c>
+      <c r="Z8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="B9">
+        <v>0.06458968638411705</v>
+      </c>
+      <c r="C9">
+        <v>5.262414410911821</v>
+      </c>
+      <c r="D9">
+        <v>4.856614410911821</v>
+      </c>
+      <c r="E9">
+        <v>-3.6008</v>
+      </c>
+      <c r="F9">
+        <v>0.3892</v>
+      </c>
+      <c r="G9">
+        <v>0.795</v>
+      </c>
+      <c r="H9">
+        <v>1.57</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>5.76</v>
+      </c>
+      <c r="K9">
+        <v>0.8599999999999994</v>
+      </c>
+      <c r="L9">
+        <v>4.9</v>
+      </c>
+      <c r="M9">
+        <v>0.00630504</v>
+      </c>
+      <c r="N9">
+        <v>4.89369496</v>
+      </c>
+      <c r="O9">
+        <v>0.9787389920000001</v>
+      </c>
+      <c r="P9">
+        <v>3.914955968</v>
+      </c>
+      <c r="Q9">
+        <v>4.774955968</v>
+      </c>
+      <c r="R9">
+        <v>0.07526881720430109</v>
+      </c>
+      <c r="S9">
+        <v>0.06847579181087855</v>
+      </c>
+      <c r="T9">
+        <v>1.006038909413739</v>
+      </c>
+      <c r="U9">
+        <v>0.0162</v>
+      </c>
+      <c r="V9">
+        <v>0.2</v>
+      </c>
+      <c r="W9">
+        <v>0.01296</v>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y9">
+        <v>777.1560529354294</v>
+      </c>
+      <c r="Z9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10">
+        <v>0.08</v>
+      </c>
+      <c r="B10">
+        <v>0.06451465659429126</v>
+      </c>
+      <c r="C10">
+        <v>5.207581096435568</v>
+      </c>
+      <c r="D10">
+        <v>4.857381096435568</v>
+      </c>
+      <c r="E10">
+        <v>-3.5452</v>
+      </c>
+      <c r="F10">
+        <v>0.4448</v>
+      </c>
+      <c r="G10">
+        <v>0.795</v>
+      </c>
+      <c r="H10">
+        <v>1.57</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>5.76</v>
+      </c>
+      <c r="K10">
+        <v>0.8599999999999994</v>
+      </c>
+      <c r="L10">
+        <v>4.9</v>
+      </c>
+      <c r="M10">
+        <v>0.00720576</v>
+      </c>
+      <c r="N10">
+        <v>4.892794240000001</v>
+      </c>
+      <c r="O10">
+        <v>0.9785588480000001</v>
+      </c>
+      <c r="P10">
+        <v>3.914235392000001</v>
+      </c>
+      <c r="Q10">
+        <v>4.774235392</v>
+      </c>
+      <c r="R10">
+        <v>0.08695652173913043</v>
+      </c>
+      <c r="S10">
+        <v>0.06899767021118615</v>
+      </c>
+      <c r="T10">
+        <v>1.014911287131472</v>
+      </c>
+      <c r="U10">
+        <v>0.0162</v>
+      </c>
+      <c r="V10">
+        <v>0.2</v>
+      </c>
+      <c r="W10">
+        <v>0.01296</v>
+      </c>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y10">
+        <v>680.0115463185008</v>
+      </c>
+      <c r="Z10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11">
+        <v>0.09</v>
+      </c>
+      <c r="B11">
+        <v>0.06443962680446547</v>
+      </c>
+      <c r="C11">
+        <v>5.15274802406192</v>
+      </c>
+      <c r="D11">
+        <v>4.85814802406192</v>
+      </c>
+      <c r="E11">
+        <v>-3.4896</v>
+      </c>
+      <c r="F11">
+        <v>0.5004000000000001</v>
+      </c>
+      <c r="G11">
+        <v>0.795</v>
+      </c>
+      <c r="H11">
+        <v>1.57</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>5.76</v>
+      </c>
+      <c r="K11">
+        <v>0.8599999999999994</v>
+      </c>
+      <c r="L11">
+        <v>4.9</v>
+      </c>
+      <c r="M11">
+        <v>0.008106480000000001</v>
+      </c>
+      <c r="N11">
+        <v>4.89189352</v>
+      </c>
+      <c r="O11">
+        <v>0.978378704</v>
+      </c>
+      <c r="P11">
+        <v>3.913514816</v>
+      </c>
+      <c r="Q11">
+        <v>4.773514816</v>
+      </c>
+      <c r="R11">
+        <v>0.0989010989010989</v>
+      </c>
+      <c r="S11">
+        <v>0.06953101846644556</v>
+      </c>
+      <c r="T11">
+        <v>1.023978662161682</v>
+      </c>
+      <c r="U11">
+        <v>0.0162</v>
+      </c>
+      <c r="V11">
+        <v>0.2</v>
+      </c>
+      <c r="W11">
+        <v>0.01296</v>
+      </c>
+      <c r="X11" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y11">
+        <v>604.4547078386672</v>
+      </c>
+      <c r="Z11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12">
+        <v>0.1</v>
+      </c>
+      <c r="B12">
+        <v>0.06436459701463967</v>
+      </c>
+      <c r="C12">
+        <v>5.097915193905571</v>
+      </c>
+      <c r="D12">
+        <v>4.858915193905571</v>
+      </c>
+      <c r="E12">
+        <v>-3.434</v>
+      </c>
+      <c r="F12">
+        <v>0.556</v>
+      </c>
+      <c r="G12">
+        <v>0.795</v>
+      </c>
+      <c r="H12">
+        <v>1.57</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>5.76</v>
+      </c>
+      <c r="K12">
+        <v>0.8599999999999994</v>
+      </c>
+      <c r="L12">
+        <v>4.9</v>
+      </c>
+      <c r="M12">
+        <v>0.0090072</v>
+      </c>
+      <c r="N12">
+        <v>4.8909928</v>
+      </c>
+      <c r="O12">
+        <v>0.9781985600000001</v>
+      </c>
+      <c r="P12">
+        <v>3.91279424</v>
+      </c>
+      <c r="Q12">
+        <v>4.77279424</v>
+      </c>
+      <c r="R12">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="S12">
+        <v>0.07007621890515518</v>
+      </c>
+      <c r="T12">
+        <v>1.033247534414786</v>
+      </c>
+      <c r="U12">
+        <v>0.0162</v>
+      </c>
+      <c r="V12">
+        <v>0.2</v>
+      </c>
+      <c r="W12">
+        <v>0.01296</v>
+      </c>
+      <c r="X12" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y12">
+        <v>544.0092370548007</v>
+      </c>
+      <c r="Z12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13">
+        <v>0.11</v>
+      </c>
+      <c r="B13">
+        <v>0.06428956722481385</v>
+      </c>
+      <c r="C13">
+        <v>5.04308260608129</v>
+      </c>
+      <c r="D13">
+        <v>4.85968260608129</v>
+      </c>
+      <c r="E13">
+        <v>-3.3784</v>
+      </c>
+      <c r="F13">
+        <v>0.6116</v>
+      </c>
+      <c r="G13">
+        <v>0.795</v>
+      </c>
+      <c r="H13">
+        <v>1.57</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>5.76</v>
+      </c>
+      <c r="K13">
+        <v>0.8599999999999994</v>
+      </c>
+      <c r="L13">
+        <v>4.9</v>
+      </c>
+      <c r="M13">
+        <v>0.009907920000000001</v>
+      </c>
+      <c r="N13">
+        <v>4.890092080000001</v>
+      </c>
+      <c r="O13">
+        <v>0.9780184160000002</v>
+      </c>
+      <c r="P13">
+        <v>3.912073664</v>
+      </c>
+      <c r="Q13">
+        <v>4.772073664</v>
+      </c>
+      <c r="R13">
+        <v>0.1235955056179775</v>
+      </c>
+      <c r="S13">
+        <v>0.07063367103911669</v>
+      </c>
+      <c r="T13">
+        <v>1.042724695932005</v>
+      </c>
+      <c r="U13">
+        <v>0.0162</v>
+      </c>
+      <c r="V13">
+        <v>0.2</v>
+      </c>
+      <c r="W13">
+        <v>0.01296</v>
+      </c>
+      <c r="X13" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y13">
+        <v>494.5538518680005</v>
+      </c>
+      <c r="Z13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14">
+        <v>0.12</v>
+      </c>
+      <c r="B14">
+        <v>0.06421453743498808</v>
+      </c>
+      <c r="C14">
+        <v>4.988250260703913</v>
+      </c>
+      <c r="D14">
+        <v>4.860450260703914</v>
+      </c>
+      <c r="E14">
+        <v>-3.3228</v>
+      </c>
+      <c r="F14">
+        <v>0.6672</v>
+      </c>
+      <c r="G14">
+        <v>0.795</v>
+      </c>
+      <c r="H14">
+        <v>1.57</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>5.76</v>
+      </c>
+      <c r="K14">
+        <v>0.8599999999999994</v>
+      </c>
+      <c r="L14">
+        <v>4.9</v>
+      </c>
+      <c r="M14">
+        <v>0.01080864</v>
+      </c>
+      <c r="N14">
+        <v>4.889191360000001</v>
+      </c>
+      <c r="O14">
+        <v>0.9778382720000002</v>
+      </c>
+      <c r="P14">
+        <v>3.911353088000001</v>
+      </c>
+      <c r="Q14">
+        <v>4.771353088</v>
+      </c>
+      <c r="R14">
+        <v>0.1363636363636364</v>
+      </c>
+      <c r="S14">
+        <v>0.07120379253975917</v>
+      </c>
+      <c r="T14">
+        <v>1.052417247483706</v>
+      </c>
+      <c r="U14">
+        <v>0.0162</v>
+      </c>
+      <c r="V14">
+        <v>0.2</v>
+      </c>
+      <c r="W14">
+        <v>0.01296</v>
+      </c>
+      <c r="X14" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y14">
+        <v>453.3410308790006</v>
+      </c>
+      <c r="Z14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15">
+        <v>0.13</v>
+      </c>
+      <c r="B15">
+        <v>0.06413950764516227</v>
+      </c>
+      <c r="C15">
+        <v>4.933418157888353</v>
+      </c>
+      <c r="D15">
+        <v>4.861218157888353</v>
+      </c>
+      <c r="E15">
+        <v>-3.2672</v>
+      </c>
+      <c r="F15">
+        <v>0.7228000000000001</v>
+      </c>
+      <c r="G15">
+        <v>0.795</v>
+      </c>
+      <c r="H15">
+        <v>1.57</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>5.76</v>
+      </c>
+      <c r="K15">
+        <v>0.8599999999999994</v>
+      </c>
+      <c r="L15">
+        <v>4.9</v>
+      </c>
+      <c r="M15">
+        <v>0.01170936</v>
+      </c>
+      <c r="N15">
+        <v>4.88829064</v>
+      </c>
+      <c r="O15">
+        <v>0.9776581280000001</v>
+      </c>
+      <c r="P15">
+        <v>3.910632512</v>
+      </c>
+      <c r="Q15">
+        <v>4.770632512</v>
+      </c>
+      <c r="R15">
+        <v>0.1494252873563219</v>
+      </c>
+      <c r="S15">
+        <v>0.07178702028179572</v>
+      </c>
+      <c r="T15">
+        <v>1.062332616312458</v>
+      </c>
+      <c r="U15">
+        <v>0.0162</v>
+      </c>
+      <c r="V15">
+        <v>0.2</v>
+      </c>
+      <c r="W15">
+        <v>0.01296</v>
+      </c>
+      <c r="X15" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y15">
+        <v>418.4686438883081</v>
+      </c>
+      <c r="Z15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16">
+        <v>0.14</v>
+      </c>
+      <c r="B16">
+        <v>0.06406447785533648</v>
+      </c>
+      <c r="C16">
+        <v>4.878586297749594</v>
+      </c>
+      <c r="D16">
+        <v>4.861986297749595</v>
+      </c>
+      <c r="E16">
+        <v>-3.2116</v>
+      </c>
+      <c r="F16">
+        <v>0.7784000000000001</v>
+      </c>
+      <c r="G16">
+        <v>0.795</v>
+      </c>
+      <c r="H16">
+        <v>1.57</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>5.76</v>
+      </c>
+      <c r="K16">
+        <v>0.8599999999999994</v>
+      </c>
+      <c r="L16">
+        <v>4.9</v>
+      </c>
+      <c r="M16">
+        <v>0.01261008</v>
+      </c>
+      <c r="N16">
+        <v>4.88738992</v>
+      </c>
+      <c r="O16">
+        <v>0.9774779840000001</v>
+      </c>
+      <c r="P16">
+        <v>3.909911936</v>
+      </c>
+      <c r="Q16">
+        <v>4.769911936</v>
+      </c>
+      <c r="R16">
+        <v>0.1627906976744186</v>
+      </c>
+      <c r="S16">
+        <v>0.07238381145969358</v>
+      </c>
+      <c r="T16">
+        <v>1.072478575113971</v>
+      </c>
+      <c r="U16">
+        <v>0.0162</v>
+      </c>
+      <c r="V16">
+        <v>0.2</v>
+      </c>
+      <c r="W16">
+        <v>0.01296</v>
+      </c>
+      <c r="X16" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y16">
+        <v>388.5780264677147</v>
+      </c>
+      <c r="Z16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17">
+        <v>0.15</v>
+      </c>
+      <c r="B17">
+        <v>0.06398944806551068</v>
+      </c>
+      <c r="C17">
+        <v>4.823754680402693</v>
+      </c>
+      <c r="D17">
+        <v>4.862754680402694</v>
+      </c>
+      <c r="E17">
+        <v>-3.156</v>
+      </c>
+      <c r="F17">
+        <v>0.8340000000000001</v>
+      </c>
+      <c r="G17">
+        <v>0.795</v>
+      </c>
+      <c r="H17">
+        <v>1.57</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>5.76</v>
+      </c>
+      <c r="K17">
+        <v>0.8599999999999994</v>
+      </c>
+      <c r="L17">
+        <v>4.9</v>
+      </c>
+      <c r="M17">
+        <v>0.0135108</v>
+      </c>
+      <c r="N17">
+        <v>4.886489200000001</v>
+      </c>
+      <c r="O17">
+        <v>0.9772978400000002</v>
+      </c>
+      <c r="P17">
+        <v>3.90919136</v>
+      </c>
+      <c r="Q17">
+        <v>4.76919136</v>
+      </c>
+      <c r="R17">
+        <v>0.1764705882352941</v>
+      </c>
+      <c r="S17">
+        <v>0.07299464478295375</v>
+      </c>
+      <c r="T17">
+        <v>1.082863262357873</v>
+      </c>
+      <c r="U17">
+        <v>0.0162</v>
+      </c>
+      <c r="V17">
+        <v>0.2</v>
+      </c>
+      <c r="W17">
+        <v>0.01296</v>
+      </c>
+      <c r="X17" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y17">
+        <v>362.6728247032004</v>
+      </c>
+      <c r="Z17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18">
+        <v>0.16</v>
+      </c>
+      <c r="B18">
+        <v>0.06391441827568489</v>
+      </c>
+      <c r="C18">
+        <v>4.768923305962783</v>
+      </c>
+      <c r="D18">
+        <v>4.863523305962783</v>
+      </c>
+      <c r="E18">
+        <v>-3.1004</v>
+      </c>
+      <c r="F18">
+        <v>0.8896000000000001</v>
+      </c>
+      <c r="G18">
+        <v>0.795</v>
+      </c>
+      <c r="H18">
+        <v>1.57</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>5.76</v>
+      </c>
+      <c r="K18">
+        <v>0.8599999999999994</v>
+      </c>
+      <c r="L18">
+        <v>4.9</v>
+      </c>
+      <c r="M18">
+        <v>0.01441152</v>
+      </c>
+      <c r="N18">
+        <v>4.88558848</v>
+      </c>
+      <c r="O18">
+        <v>0.9771176960000001</v>
+      </c>
+      <c r="P18">
+        <v>3.908470784</v>
+      </c>
+      <c r="Q18">
+        <v>4.768470784</v>
+      </c>
+      <c r="R18">
+        <v>0.1904761904761905</v>
+      </c>
+      <c r="S18">
+        <v>0.07362002175676773</v>
+      </c>
+      <c r="T18">
+        <v>1.093495204059963</v>
+      </c>
+      <c r="U18">
+        <v>0.0162</v>
+      </c>
+      <c r="V18">
+        <v>0.2</v>
+      </c>
+      <c r="W18">
+        <v>0.01296</v>
+      </c>
+      <c r="X18" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y18">
+        <v>340.0057731592503</v>
+      </c>
+      <c r="Z18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19">
+        <v>0.17</v>
+      </c>
+      <c r="B19">
+        <v>0.0638393884858591</v>
+      </c>
+      <c r="C19">
+        <v>4.714092174545062</v>
+      </c>
+      <c r="D19">
+        <v>4.864292174545062</v>
+      </c>
+      <c r="E19">
+        <v>-3.0448</v>
+      </c>
+      <c r="F19">
+        <v>0.9452000000000002</v>
+      </c>
+      <c r="G19">
+        <v>0.795</v>
+      </c>
+      <c r="H19">
+        <v>1.57</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>5.76</v>
+      </c>
+      <c r="K19">
+        <v>0.8599999999999994</v>
+      </c>
+      <c r="L19">
+        <v>4.9</v>
+      </c>
+      <c r="M19">
+        <v>0.01531224</v>
+      </c>
+      <c r="N19">
+        <v>4.88468776</v>
+      </c>
+      <c r="O19">
+        <v>0.9769375520000001</v>
+      </c>
+      <c r="P19">
+        <v>3.907750208</v>
+      </c>
+      <c r="Q19">
+        <v>4.767750208</v>
+      </c>
+      <c r="R19">
+        <v>0.2048192771084338</v>
+      </c>
+      <c r="S19">
+        <v>0.07426046805525192</v>
+      </c>
+      <c r="T19">
+        <v>1.104383337128369</v>
+      </c>
+      <c r="U19">
+        <v>0.0162</v>
+      </c>
+      <c r="V19">
+        <v>0.2</v>
+      </c>
+      <c r="W19">
+        <v>0.01296</v>
+      </c>
+      <c r="X19" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y19">
+        <v>320.0054335616474</v>
+      </c>
+      <c r="Z19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20">
+        <v>0.18</v>
+      </c>
+      <c r="B20">
+        <v>0.06376435869603329</v>
+      </c>
+      <c r="C20">
+        <v>4.659261286264807</v>
+      </c>
+      <c r="D20">
+        <v>4.865061286264807</v>
+      </c>
+      <c r="E20">
+        <v>-2.9892</v>
+      </c>
+      <c r="F20">
+        <v>1.0008</v>
+      </c>
+      <c r="G20">
+        <v>0.795</v>
+      </c>
+      <c r="H20">
+        <v>1.57</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>5.76</v>
+      </c>
+      <c r="K20">
+        <v>0.8599999999999994</v>
+      </c>
+      <c r="L20">
+        <v>4.9</v>
+      </c>
+      <c r="M20">
+        <v>0.01621296</v>
+      </c>
+      <c r="N20">
+        <v>4.883787040000001</v>
+      </c>
+      <c r="O20">
+        <v>0.9767574080000001</v>
+      </c>
+      <c r="P20">
+        <v>3.907029632</v>
+      </c>
+      <c r="Q20">
+        <v>4.767029632</v>
+      </c>
+      <c r="R20">
+        <v>0.2195121951219512</v>
+      </c>
+      <c r="S20">
+        <v>0.07491653499516256</v>
+      </c>
+      <c r="T20">
+        <v>1.115537034417955</v>
+      </c>
+      <c r="U20">
+        <v>0.0162</v>
+      </c>
+      <c r="V20">
+        <v>0.2</v>
+      </c>
+      <c r="W20">
+        <v>0.01296</v>
+      </c>
+      <c r="X20" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y20">
+        <v>302.2273539193337</v>
+      </c>
+      <c r="Z20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21">
+        <v>0.19</v>
+      </c>
+      <c r="B21">
+        <v>0.06368932890620752</v>
+      </c>
+      <c r="C21">
+        <v>4.604430641237368</v>
+      </c>
+      <c r="D21">
+        <v>4.865830641237368</v>
+      </c>
+      <c r="E21">
+        <v>-2.9336</v>
+      </c>
+      <c r="F21">
+        <v>1.0564</v>
+      </c>
+      <c r="G21">
+        <v>0.795</v>
+      </c>
+      <c r="H21">
+        <v>1.57</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>5.76</v>
+      </c>
+      <c r="K21">
+        <v>0.8599999999999994</v>
+      </c>
+      <c r="L21">
+        <v>4.9</v>
+      </c>
+      <c r="M21">
+        <v>0.01711368</v>
+      </c>
+      <c r="N21">
+        <v>4.882886320000001</v>
+      </c>
+      <c r="O21">
+        <v>0.9765772640000002</v>
+      </c>
+      <c r="P21">
+        <v>3.906309056</v>
+      </c>
+      <c r="Q21">
+        <v>4.766309056</v>
+      </c>
+      <c r="R21">
+        <v>0.2345679012345679</v>
+      </c>
+      <c r="S21">
+        <v>0.07558880111877471</v>
+      </c>
+      <c r="T21">
+        <v>1.126966131640617</v>
+      </c>
+      <c r="U21">
+        <v>0.0162</v>
+      </c>
+      <c r="V21">
+        <v>0.2</v>
+      </c>
+      <c r="W21">
+        <v>0.01296</v>
+      </c>
+      <c r="X21" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y21">
+        <v>286.3206510814741</v>
+      </c>
+      <c r="Z21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22">
+        <v>0.2</v>
+      </c>
+      <c r="B22">
+        <v>0.06361429911638172</v>
+      </c>
+      <c r="C22">
+        <v>4.549600239578164</v>
+      </c>
+      <c r="D22">
+        <v>4.866600239578164</v>
+      </c>
+      <c r="E22">
+        <v>-2.878</v>
+      </c>
+      <c r="F22">
+        <v>1.112</v>
+      </c>
+      <c r="G22">
+        <v>0.795</v>
+      </c>
+      <c r="H22">
+        <v>1.57</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>5.76</v>
+      </c>
+      <c r="K22">
+        <v>0.8599999999999994</v>
+      </c>
+      <c r="L22">
+        <v>4.9</v>
+      </c>
+      <c r="M22">
+        <v>0.0180144</v>
+      </c>
+      <c r="N22">
+        <v>4.8819856</v>
+      </c>
+      <c r="O22">
+        <v>0.9763971200000001</v>
+      </c>
+      <c r="P22">
+        <v>3.90558848</v>
+      </c>
+      <c r="Q22">
+        <v>4.76558848</v>
+      </c>
+      <c r="R22">
+        <v>0.25</v>
+      </c>
+      <c r="S22">
+        <v>0.07627787389547715</v>
+      </c>
+      <c r="T22">
+        <v>1.138680956293846</v>
+      </c>
+      <c r="U22">
+        <v>0.0162</v>
+      </c>
+      <c r="V22">
+        <v>0.2</v>
+      </c>
+      <c r="W22">
+        <v>0.01296</v>
+      </c>
+      <c r="X22" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y22">
+        <v>272.0046185274003</v>
+      </c>
+      <c r="Z22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23">
+        <v>0.21</v>
+      </c>
+      <c r="B23">
+        <v>0.06353926932655592</v>
+      </c>
+      <c r="C23">
+        <v>4.494770081402691</v>
+      </c>
+      <c r="D23">
+        <v>4.867370081402691</v>
+      </c>
+      <c r="E23">
+        <v>-2.8224</v>
+      </c>
+      <c r="F23">
+        <v>1.1676</v>
+      </c>
+      <c r="G23">
+        <v>0.795</v>
+      </c>
+      <c r="H23">
+        <v>1.57</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>5.76</v>
+      </c>
+      <c r="K23">
+        <v>0.8599999999999994</v>
+      </c>
+      <c r="L23">
+        <v>4.9</v>
+      </c>
+      <c r="M23">
+        <v>0.01891512</v>
+      </c>
+      <c r="N23">
+        <v>4.88108488</v>
+      </c>
+      <c r="O23">
+        <v>0.9762169760000001</v>
+      </c>
+      <c r="P23">
+        <v>3.904867904000001</v>
+      </c>
+      <c r="Q23">
+        <v>4.764867904</v>
+      </c>
+      <c r="R23">
+        <v>0.2658227848101266</v>
+      </c>
+      <c r="S23">
+        <v>0.07698439155260242</v>
+      </c>
+      <c r="T23">
+        <v>1.150692358786397</v>
+      </c>
+      <c r="U23">
+        <v>0.0162</v>
+      </c>
+      <c r="V23">
+        <v>0.2</v>
+      </c>
+      <c r="W23">
+        <v>0.01296</v>
+      </c>
+      <c r="X23" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y23">
+        <v>259.0520176451432</v>
+      </c>
+      <c r="Z23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24">
+        <v>0.22</v>
+      </c>
+      <c r="B24">
+        <v>0.06346423953673012</v>
+      </c>
+      <c r="C24">
+        <v>4.439940166826516</v>
+      </c>
+      <c r="D24">
+        <v>4.868140166826517</v>
+      </c>
+      <c r="E24">
+        <v>-2.7668</v>
+      </c>
+      <c r="F24">
+        <v>1.2232</v>
+      </c>
+      <c r="G24">
+        <v>0.795</v>
+      </c>
+      <c r="H24">
+        <v>1.57</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>5.76</v>
+      </c>
+      <c r="K24">
+        <v>0.8599999999999994</v>
+      </c>
+      <c r="L24">
+        <v>4.9</v>
+      </c>
+      <c r="M24">
+        <v>0.01981584</v>
+      </c>
+      <c r="N24">
+        <v>4.880184160000001</v>
+      </c>
+      <c r="O24">
+        <v>0.9760368320000001</v>
+      </c>
+      <c r="P24">
+        <v>3.904147328000001</v>
+      </c>
+      <c r="Q24">
+        <v>4.764147328</v>
+      </c>
+      <c r="R24">
+        <v>0.282051282051282</v>
+      </c>
+      <c r="S24">
+        <v>0.0777090250470899</v>
+      </c>
+      <c r="T24">
+        <v>1.163011745958245</v>
+      </c>
+      <c r="U24">
+        <v>0.0162</v>
+      </c>
+      <c r="V24">
+        <v>0.2</v>
+      </c>
+      <c r="W24">
+        <v>0.01296</v>
+      </c>
+      <c r="X24" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y24">
+        <v>247.2769259340003</v>
+      </c>
+      <c r="Z24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25">
+        <v>0.23</v>
+      </c>
+      <c r="B25">
+        <v>0.06338920974690435</v>
+      </c>
+      <c r="C25">
+        <v>4.38511049596528</v>
+      </c>
+      <c r="D25">
+        <v>4.86891049596528</v>
+      </c>
+      <c r="E25">
+        <v>-2.7112</v>
+      </c>
+      <c r="F25">
+        <v>1.2788</v>
+      </c>
+      <c r="G25">
+        <v>0.795</v>
+      </c>
+      <c r="H25">
+        <v>1.57</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>5.76</v>
+      </c>
+      <c r="K25">
+        <v>0.8599999999999994</v>
+      </c>
+      <c r="L25">
+        <v>4.9</v>
+      </c>
+      <c r="M25">
+        <v>0.02071656</v>
+      </c>
+      <c r="N25">
+        <v>4.87928344</v>
+      </c>
+      <c r="O25">
+        <v>0.975856688</v>
+      </c>
+      <c r="P25">
+        <v>3.903426752</v>
+      </c>
+      <c r="Q25">
+        <v>4.763426751999999</v>
+      </c>
+      <c r="R25">
+        <v>0.2987012987012987</v>
+      </c>
+      <c r="S25">
+        <v>0.07845248019078485</v>
+      </c>
+      <c r="T25">
+        <v>1.175651117212478</v>
+      </c>
+      <c r="U25">
+        <v>0.0162</v>
+      </c>
+      <c r="V25">
+        <v>0.2</v>
+      </c>
+      <c r="W25">
+        <v>0.01296</v>
+      </c>
+      <c r="X25" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y25">
+        <v>236.5257552412176</v>
+      </c>
+      <c r="Z25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26">
+        <v>0.24</v>
+      </c>
+      <c r="B26">
+        <v>0.06331417995707853</v>
+      </c>
+      <c r="C26">
+        <v>4.330281068934697</v>
+      </c>
+      <c r="D26">
+        <v>4.869681068934697</v>
+      </c>
+      <c r="E26">
+        <v>-2.6556</v>
+      </c>
+      <c r="F26">
+        <v>1.3344</v>
+      </c>
+      <c r="G26">
+        <v>0.795</v>
+      </c>
+      <c r="H26">
+        <v>1.57</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>5.76</v>
+      </c>
+      <c r="K26">
+        <v>0.8599999999999994</v>
+      </c>
+      <c r="L26">
+        <v>4.9</v>
+      </c>
+      <c r="M26">
+        <v>0.02161728</v>
+      </c>
+      <c r="N26">
+        <v>4.87838272</v>
+      </c>
+      <c r="O26">
+        <v>0.9756765440000001</v>
+      </c>
+      <c r="P26">
+        <v>3.902706176</v>
+      </c>
+      <c r="Q26">
+        <v>4.762706176</v>
+      </c>
+      <c r="R26">
+        <v>0.3157894736842105</v>
+      </c>
+      <c r="S26">
+        <v>0.07921549994352438</v>
+      </c>
+      <c r="T26">
+        <v>1.188623103499717</v>
+      </c>
+      <c r="U26">
+        <v>0.0162</v>
+      </c>
+      <c r="V26">
+        <v>0.2</v>
+      </c>
+      <c r="W26">
+        <v>0.01296</v>
+      </c>
+      <c r="X26" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y26">
+        <v>226.6705154395003</v>
+      </c>
+      <c r="Z26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27">
+        <v>0.25</v>
+      </c>
+      <c r="B27">
+        <v>0.06323915016725273</v>
+      </c>
+      <c r="C27">
+        <v>4.275451885850552</v>
+      </c>
+      <c r="D27">
+        <v>4.870451885850553</v>
+      </c>
+      <c r="E27">
+        <v>-2.6</v>
+      </c>
+      <c r="F27">
+        <v>1.39</v>
+      </c>
+      <c r="G27">
+        <v>0.795</v>
+      </c>
+      <c r="H27">
+        <v>1.57</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>5.76</v>
+      </c>
+      <c r="K27">
+        <v>0.8599999999999994</v>
+      </c>
+      <c r="L27">
+        <v>4.9</v>
+      </c>
+      <c r="M27">
+        <v>0.022518</v>
+      </c>
+      <c r="N27">
+        <v>4.877482000000001</v>
+      </c>
+      <c r="O27">
+        <v>0.9754964000000002</v>
+      </c>
+      <c r="P27">
+        <v>3.901985600000001</v>
+      </c>
+      <c r="Q27">
+        <v>4.7619856</v>
+      </c>
+      <c r="R27">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="S27">
+        <v>0.07999886688967031</v>
+      </c>
+      <c r="T27">
+        <v>1.201941009421282</v>
+      </c>
+      <c r="U27">
+        <v>0.0162</v>
+      </c>
+      <c r="V27">
+        <v>0.2</v>
+      </c>
+      <c r="W27">
+        <v>0.01296</v>
+      </c>
+      <c r="X27" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y27">
+        <v>217.6036948219203</v>
+      </c>
+      <c r="Z27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28">
+        <v>0.26</v>
+      </c>
+      <c r="B28">
+        <v>0.06316412037742694</v>
+      </c>
+      <c r="C28">
+        <v>4.220622946828708</v>
+      </c>
+      <c r="D28">
+        <v>4.871222946828709</v>
+      </c>
+      <c r="E28">
+        <v>-2.5444</v>
+      </c>
+      <c r="F28">
+        <v>1.4456</v>
+      </c>
+      <c r="G28">
+        <v>0.795</v>
+      </c>
+      <c r="H28">
+        <v>1.57</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>5.76</v>
+      </c>
+      <c r="K28">
+        <v>0.8599999999999994</v>
+      </c>
+      <c r="L28">
+        <v>4.9</v>
+      </c>
+      <c r="M28">
+        <v>0.02341872</v>
+      </c>
+      <c r="N28">
+        <v>4.87658128</v>
+      </c>
+      <c r="O28">
+        <v>0.975316256</v>
+      </c>
+      <c r="P28">
+        <v>3.901265024</v>
+      </c>
+      <c r="Q28">
+        <v>4.761265023999999</v>
+      </c>
+      <c r="R28">
+        <v>0.3513513513513514</v>
+      </c>
+      <c r="S28">
+        <v>0.08080340591544181</v>
+      </c>
+      <c r="T28">
+        <v>1.215618858746133</v>
+      </c>
+      <c r="U28">
+        <v>0.0162</v>
+      </c>
+      <c r="V28">
+        <v>0.2</v>
+      </c>
+      <c r="W28">
+        <v>0.01296</v>
+      </c>
+      <c r="X28" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y28">
+        <v>209.234321944154</v>
+      </c>
+      <c r="Z28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29">
+        <v>0.27</v>
+      </c>
+      <c r="B29">
+        <v>0.06308909058760115</v>
+      </c>
+      <c r="C29">
+        <v>4.165794251985099</v>
+      </c>
+      <c r="D29">
+        <v>4.8719942519851</v>
+      </c>
+      <c r="E29">
+        <v>-2.4888</v>
+      </c>
+      <c r="F29">
+        <v>1.5012</v>
+      </c>
+      <c r="G29">
+        <v>0.795</v>
+      </c>
+      <c r="H29">
+        <v>1.57</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>5.76</v>
+      </c>
+      <c r="K29">
+        <v>0.8599999999999994</v>
+      </c>
+      <c r="L29">
+        <v>4.9</v>
+      </c>
+      <c r="M29">
+        <v>0.02431944</v>
+      </c>
+      <c r="N29">
+        <v>4.87568056</v>
+      </c>
+      <c r="O29">
+        <v>0.9751361120000001</v>
+      </c>
+      <c r="P29">
+        <v>3.900544448</v>
+      </c>
+      <c r="Q29">
+        <v>4.760544447999999</v>
+      </c>
+      <c r="R29">
+        <v>0.3698630136986302</v>
+      </c>
+      <c r="S29">
+        <v>0.08162998710630294</v>
+      </c>
+      <c r="T29">
+        <v>1.229671443668925</v>
+      </c>
+      <c r="U29">
+        <v>0.0162</v>
+      </c>
+      <c r="V29">
+        <v>0.2</v>
+      </c>
+      <c r="W29">
+        <v>0.01296</v>
+      </c>
+      <c r="X29" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y29">
+        <v>201.4849026128891</v>
+      </c>
+      <c r="Z29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30">
+        <v>0.28</v>
+      </c>
+      <c r="B30">
+        <v>0.06301406079777534</v>
+      </c>
+      <c r="C30">
+        <v>4.110965801435731</v>
+      </c>
+      <c r="D30">
+        <v>4.872765801435731</v>
+      </c>
+      <c r="E30">
+        <v>-2.4332</v>
+      </c>
+      <c r="F30">
+        <v>1.5568</v>
+      </c>
+      <c r="G30">
+        <v>0.795</v>
+      </c>
+      <c r="H30">
+        <v>1.57</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>5.76</v>
+      </c>
+      <c r="K30">
+        <v>0.8599999999999994</v>
+      </c>
+      <c r="L30">
+        <v>4.9</v>
+      </c>
+      <c r="M30">
+        <v>0.02522016</v>
+      </c>
+      <c r="N30">
+        <v>4.87477984</v>
+      </c>
+      <c r="O30">
+        <v>0.9749559680000002</v>
+      </c>
+      <c r="P30">
+        <v>3.899823872</v>
+      </c>
+      <c r="Q30">
+        <v>4.759823872</v>
+      </c>
+      <c r="R30">
+        <v>0.388888888888889</v>
+      </c>
+      <c r="S30">
+        <v>0.0824795288857991</v>
+      </c>
+      <c r="T30">
+        <v>1.244114378172906</v>
+      </c>
+      <c r="U30">
+        <v>0.0162</v>
+      </c>
+      <c r="V30">
+        <v>0.2</v>
+      </c>
+      <c r="W30">
+        <v>0.01296</v>
+      </c>
+      <c r="X30" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y30">
+        <v>194.2890132338574</v>
+      </c>
+      <c r="Z30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31">
+        <v>0.29</v>
+      </c>
+      <c r="B31">
+        <v>0.06293903100794955</v>
+      </c>
+      <c r="C31">
+        <v>4.056137595296685</v>
+      </c>
+      <c r="D31">
+        <v>4.873537595296686</v>
+      </c>
+      <c r="E31">
+        <v>-2.3776</v>
+      </c>
+      <c r="F31">
+        <v>1.6124</v>
+      </c>
+      <c r="G31">
+        <v>0.795</v>
+      </c>
+      <c r="H31">
+        <v>1.57</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>5.76</v>
+      </c>
+      <c r="K31">
+        <v>0.8599999999999994</v>
+      </c>
+      <c r="L31">
+        <v>4.9</v>
+      </c>
+      <c r="M31">
+        <v>0.02612088</v>
+      </c>
+      <c r="N31">
+        <v>4.873879120000001</v>
+      </c>
+      <c r="O31">
+        <v>0.9747758240000002</v>
+      </c>
+      <c r="P31">
+        <v>3.899103296000001</v>
+      </c>
+      <c r="Q31">
+        <v>4.759103296</v>
+      </c>
+      <c r="R31">
+        <v>0.4084507042253521</v>
+      </c>
+      <c r="S31">
+        <v>0.08335300141964726</v>
+      </c>
+      <c r="T31">
+        <v>1.258964155902351</v>
+      </c>
+      <c r="U31">
+        <v>0.0162</v>
+      </c>
+      <c r="V31">
+        <v>0.2</v>
+      </c>
+      <c r="W31">
+        <v>0.01296</v>
+      </c>
+      <c r="X31" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y31">
+        <v>187.5893920878623</v>
+      </c>
+      <c r="Z31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32">
+        <v>0.3</v>
+      </c>
+      <c r="B32">
+        <v>0.06286400121812376</v>
+      </c>
+      <c r="C32">
+        <v>4.001309633684116</v>
+      </c>
+      <c r="D32">
+        <v>4.874309633684116</v>
+      </c>
+      <c r="E32">
+        <v>-2.322</v>
+      </c>
+      <c r="F32">
+        <v>1.668</v>
+      </c>
+      <c r="G32">
+        <v>0.795</v>
+      </c>
+      <c r="H32">
+        <v>1.57</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>5.76</v>
+      </c>
+      <c r="K32">
+        <v>0.8599999999999994</v>
+      </c>
+      <c r="L32">
+        <v>4.9</v>
+      </c>
+      <c r="M32">
+        <v>0.0270216</v>
+      </c>
+      <c r="N32">
+        <v>4.8729784</v>
+      </c>
+      <c r="O32">
+        <v>0.9745956800000001</v>
+      </c>
+      <c r="P32">
+        <v>3.89838272</v>
+      </c>
+      <c r="Q32">
+        <v>4.758382719999999</v>
+      </c>
+      <c r="R32">
+        <v>0.4285714285714286</v>
+      </c>
+      <c r="S32">
+        <v>0.08425143031160538</v>
+      </c>
+      <c r="T32">
+        <v>1.274238212995495</v>
+      </c>
+      <c r="U32">
+        <v>0.0162</v>
+      </c>
+      <c r="V32">
+        <v>0.2</v>
+      </c>
+      <c r="W32">
+        <v>0.01296</v>
+      </c>
+      <c r="X32" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y32">
+        <v>181.3364123516002</v>
+      </c>
+      <c r="Z32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33">
+        <v>0.31</v>
+      </c>
+      <c r="B33">
+        <v>0.06278897142829797</v>
+      </c>
+      <c r="C33">
+        <v>3.94648191671425</v>
+      </c>
+      <c r="D33">
+        <v>4.87508191671425</v>
+      </c>
+      <c r="E33">
+        <v>-2.2664</v>
+      </c>
+      <c r="F33">
+        <v>1.7236</v>
+      </c>
+      <c r="G33">
+        <v>0.795</v>
+      </c>
+      <c r="H33">
+        <v>1.57</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>5.76</v>
+      </c>
+      <c r="K33">
+        <v>0.8599999999999994</v>
+      </c>
+      <c r="L33">
+        <v>4.9</v>
+      </c>
+      <c r="M33">
+        <v>0.02792232</v>
+      </c>
+      <c r="N33">
+        <v>4.87207768</v>
+      </c>
+      <c r="O33">
+        <v>0.9744155360000001</v>
+      </c>
+      <c r="P33">
+        <v>3.897662144</v>
+      </c>
+      <c r="Q33">
+        <v>4.757662143999999</v>
+      </c>
+      <c r="R33">
+        <v>0.4492753623188406</v>
+      </c>
+      <c r="S33">
+        <v>0.0851759006207217</v>
+      </c>
+      <c r="T33">
+        <v>1.289954996381193</v>
+      </c>
+      <c r="U33">
+        <v>0.0162</v>
+      </c>
+      <c r="V33">
+        <v>0.2</v>
+      </c>
+      <c r="W33">
+        <v>0.01296</v>
+      </c>
+      <c r="X33" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y33">
+        <v>175.4868506628389</v>
+      </c>
+      <c r="Z33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34">
+        <v>0.32</v>
+      </c>
+      <c r="B34">
+        <v>0.06271394163847216</v>
+      </c>
+      <c r="C34">
+        <v>3.89165444450339</v>
+      </c>
+      <c r="D34">
+        <v>4.875854444503391</v>
+      </c>
+      <c r="E34">
+        <v>-2.2108</v>
+      </c>
+      <c r="F34">
+        <v>1.7792</v>
+      </c>
+      <c r="G34">
+        <v>0.795</v>
+      </c>
+      <c r="H34">
+        <v>1.57</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>5.76</v>
+      </c>
+      <c r="K34">
+        <v>0.8599999999999994</v>
+      </c>
+      <c r="L34">
+        <v>4.9</v>
+      </c>
+      <c r="M34">
+        <v>0.02882304</v>
+      </c>
+      <c r="N34">
+        <v>4.871176960000001</v>
+      </c>
+      <c r="O34">
+        <v>0.9742353920000002</v>
+      </c>
+      <c r="P34">
+        <v>3.896941568</v>
+      </c>
+      <c r="Q34">
+        <v>4.756941568</v>
+      </c>
+      <c r="R34">
+        <v>0.4705882352941177</v>
+      </c>
+      <c r="S34">
+        <v>0.08612756123304731</v>
+      </c>
+      <c r="T34">
+        <v>1.306134038101765</v>
+      </c>
+      <c r="U34">
+        <v>0.0162</v>
+      </c>
+      <c r="V34">
+        <v>0.2</v>
+      </c>
+      <c r="W34">
+        <v>0.01296</v>
+      </c>
+      <c r="X34" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y34">
+        <v>170.0028865796252</v>
+      </c>
+      <c r="Z34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35">
+        <v>0.33</v>
+      </c>
+      <c r="B35">
+        <v>0.06263891184864638</v>
+      </c>
+      <c r="C35">
+        <v>3.836827217167913</v>
+      </c>
+      <c r="D35">
+        <v>4.876627217167913</v>
+      </c>
+      <c r="E35">
+        <v>-2.1552</v>
+      </c>
+      <c r="F35">
+        <v>1.8348</v>
+      </c>
+      <c r="G35">
+        <v>0.795</v>
+      </c>
+      <c r="H35">
+        <v>1.57</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>5.76</v>
+      </c>
+      <c r="K35">
+        <v>0.8599999999999994</v>
+      </c>
+      <c r="L35">
+        <v>4.9</v>
+      </c>
+      <c r="M35">
+        <v>0.02972376</v>
+      </c>
+      <c r="N35">
+        <v>4.87027624</v>
+      </c>
+      <c r="O35">
+        <v>0.974055248</v>
+      </c>
+      <c r="P35">
+        <v>3.896220992</v>
+      </c>
+      <c r="Q35">
+        <v>4.756220991999999</v>
+      </c>
+      <c r="R35">
+        <v>0.4925373134328359</v>
+      </c>
+      <c r="S35">
+        <v>0.08710762962484535</v>
+      </c>
+      <c r="T35">
+        <v>1.322796036291608</v>
+      </c>
+      <c r="U35">
+        <v>0.0162</v>
+      </c>
+      <c r="V35">
+        <v>0.2</v>
+      </c>
+      <c r="W35">
+        <v>0.01296</v>
+      </c>
+      <c r="X35" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y35">
+        <v>164.8512839560002</v>
+      </c>
+      <c r="Z35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36">
+        <v>0.34</v>
+      </c>
+      <c r="B36">
+        <v>0.06256388205882056</v>
+      </c>
+      <c r="C36">
+        <v>3.782000234824264</v>
+      </c>
+      <c r="D36">
+        <v>4.877400234824265</v>
+      </c>
+      <c r="E36">
+        <v>-2.0996</v>
+      </c>
+      <c r="F36">
+        <v>1.8904</v>
+      </c>
+      <c r="G36">
+        <v>0.795</v>
+      </c>
+      <c r="H36">
+        <v>1.57</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>5.76</v>
+      </c>
+      <c r="K36">
+        <v>0.8599999999999994</v>
+      </c>
+      <c r="L36">
+        <v>4.9</v>
+      </c>
+      <c r="M36">
+        <v>0.03062448</v>
+      </c>
+      <c r="N36">
+        <v>4.86937552</v>
+      </c>
+      <c r="O36">
+        <v>0.9738751040000001</v>
+      </c>
+      <c r="P36">
+        <v>3.895500416</v>
+      </c>
+      <c r="Q36">
+        <v>4.755500415999999</v>
+      </c>
+      <c r="R36">
+        <v>0.5151515151515152</v>
+      </c>
+      <c r="S36">
+        <v>0.08811739705881905</v>
+      </c>
+      <c r="T36">
+        <v>1.339962943517506</v>
+      </c>
+      <c r="U36">
+        <v>0.0162</v>
+      </c>
+      <c r="V36">
+        <v>0.2</v>
+      </c>
+      <c r="W36">
+        <v>0.01296</v>
+      </c>
+      <c r="X36" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y36">
+        <v>160.0027167808237</v>
+      </c>
+      <c r="Z36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37">
+        <v>0.35</v>
+      </c>
+      <c r="B37">
+        <v>0.06248885226899478</v>
+      </c>
+      <c r="C37">
+        <v>3.72717349758897</v>
+      </c>
+      <c r="D37">
+        <v>4.87817349758897</v>
+      </c>
+      <c r="E37">
+        <v>-2.044</v>
+      </c>
+      <c r="F37">
+        <v>1.946</v>
+      </c>
+      <c r="G37">
+        <v>0.795</v>
+      </c>
+      <c r="H37">
+        <v>1.57</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>5.76</v>
+      </c>
+      <c r="K37">
+        <v>0.8599999999999994</v>
+      </c>
+      <c r="L37">
+        <v>4.9</v>
+      </c>
+      <c r="M37">
+        <v>0.0315252</v>
+      </c>
+      <c r="N37">
+        <v>4.8684748</v>
+      </c>
+      <c r="O37">
+        <v>0.9736949600000001</v>
+      </c>
+      <c r="P37">
+        <v>3.89477984</v>
+      </c>
+      <c r="Q37">
+        <v>4.754779839999999</v>
+      </c>
+      <c r="R37">
+        <v>0.5384615384615385</v>
+      </c>
+      <c r="S37">
+        <v>0.08915823425999198</v>
+      </c>
+      <c r="T37">
+        <v>1.357658063273432</v>
+      </c>
+      <c r="U37">
+        <v>0.0162</v>
+      </c>
+      <c r="V37">
+        <v>0.2</v>
+      </c>
+      <c r="W37">
+        <v>0.01296</v>
+      </c>
+      <c r="X37" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y37">
+        <v>155.4312105870859</v>
+      </c>
+      <c r="Z37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38">
+        <v>0.36</v>
+      </c>
+      <c r="B38">
+        <v>0.06241382247916898</v>
+      </c>
+      <c r="C38">
+        <v>3.672347005578625</v>
+      </c>
+      <c r="D38">
+        <v>4.878947005578626</v>
+      </c>
+      <c r="E38">
+        <v>-1.9884</v>
+      </c>
+      <c r="F38">
+        <v>2.0016</v>
+      </c>
+      <c r="G38">
+        <v>0.795</v>
+      </c>
+      <c r="H38">
+        <v>1.57</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>5.76</v>
+      </c>
+      <c r="K38">
+        <v>0.8599999999999994</v>
+      </c>
+      <c r="L38">
+        <v>4.9</v>
+      </c>
+      <c r="M38">
+        <v>0.03242592</v>
+      </c>
+      <c r="N38">
+        <v>4.867574080000001</v>
+      </c>
+      <c r="O38">
+        <v>0.9735148160000002</v>
+      </c>
+      <c r="P38">
+        <v>3.894059264</v>
+      </c>
+      <c r="Q38">
+        <v>4.754059264</v>
+      </c>
+      <c r="R38">
+        <v>0.5625</v>
+      </c>
+      <c r="S38">
+        <v>0.09023159762370153</v>
+      </c>
+      <c r="T38">
+        <v>1.375906155521731</v>
+      </c>
+      <c r="U38">
+        <v>0.0162</v>
+      </c>
+      <c r="V38">
+        <v>0.2</v>
+      </c>
+      <c r="W38">
+        <v>0.01296</v>
+      </c>
+      <c r="X38" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y38">
+        <v>151.1136769596668</v>
+      </c>
+      <c r="Z38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39">
+        <v>0.37</v>
+      </c>
+      <c r="B39">
+        <v>0.0623387926893432</v>
+      </c>
+      <c r="C39">
+        <v>3.617520758909902</v>
+      </c>
+      <c r="D39">
+        <v>4.879720758909903</v>
+      </c>
+      <c r="E39">
+        <v>-1.9328</v>
+      </c>
+      <c r="F39">
+        <v>2.0572</v>
+      </c>
+      <c r="G39">
+        <v>0.795</v>
+      </c>
+      <c r="H39">
+        <v>1.57</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>5.76</v>
+      </c>
+      <c r="K39">
+        <v>0.8599999999999994</v>
+      </c>
+      <c r="L39">
+        <v>4.9</v>
+      </c>
+      <c r="M39">
+        <v>0.03332664</v>
+      </c>
+      <c r="N39">
+        <v>4.86667336</v>
+      </c>
+      <c r="O39">
+        <v>0.973334672</v>
+      </c>
+      <c r="P39">
+        <v>3.893338688</v>
+      </c>
+      <c r="Q39">
+        <v>4.753338687999999</v>
+      </c>
+      <c r="R39">
+        <v>0.5873015873015873</v>
+      </c>
+      <c r="S39">
+        <v>0.09133903601483048</v>
+      </c>
+      <c r="T39">
+        <v>1.394733552285849</v>
+      </c>
+      <c r="U39">
+        <v>0.0162</v>
+      </c>
+      <c r="V39">
+        <v>0.2</v>
+      </c>
+      <c r="W39">
+        <v>0.01296</v>
+      </c>
+      <c r="X39" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y39">
+        <v>147.0295235283245</v>
+      </c>
+      <c r="Z39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40">
+        <v>0.38</v>
+      </c>
+      <c r="B40">
+        <v>0.06226376289951739</v>
+      </c>
+      <c r="C40">
+        <v>3.562694757699546</v>
+      </c>
+      <c r="D40">
+        <v>4.880494757699546</v>
+      </c>
+      <c r="E40">
+        <v>-1.8772</v>
+      </c>
+      <c r="F40">
+        <v>2.1128</v>
+      </c>
+      <c r="G40">
+        <v>0.795</v>
+      </c>
+      <c r="H40">
+        <v>1.57</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>5.76</v>
+      </c>
+      <c r="K40">
+        <v>0.8599999999999994</v>
+      </c>
+      <c r="L40">
+        <v>4.9</v>
+      </c>
+      <c r="M40">
+        <v>0.03422736</v>
+      </c>
+      <c r="N40">
+        <v>4.86577264</v>
+      </c>
+      <c r="O40">
+        <v>0.9731545280000001</v>
+      </c>
+      <c r="P40">
+        <v>3.892618112</v>
+      </c>
+      <c r="Q40">
+        <v>4.752618112</v>
+      </c>
+      <c r="R40">
+        <v>0.6129032258064516</v>
+      </c>
+      <c r="S40">
+        <v>0.09248219822502805</v>
+      </c>
+      <c r="T40">
+        <v>1.414168284429454</v>
+      </c>
+      <c r="U40">
+        <v>0.0162</v>
+      </c>
+      <c r="V40">
+        <v>0.2</v>
+      </c>
+      <c r="W40">
+        <v>0.01296</v>
+      </c>
+      <c r="X40" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y40">
+        <v>143.160325540737</v>
+      </c>
+      <c r="Z40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41">
+        <v>0.39</v>
+      </c>
+      <c r="B41">
+        <v>0.0621887331096916</v>
+      </c>
+      <c r="C41">
+        <v>3.507869002064373</v>
+      </c>
+      <c r="D41">
+        <v>4.881269002064373</v>
+      </c>
+      <c r="E41">
+        <v>-1.8216</v>
+      </c>
+      <c r="F41">
+        <v>2.1684</v>
+      </c>
+      <c r="G41">
+        <v>0.795</v>
+      </c>
+      <c r="H41">
+        <v>1.57</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>5.76</v>
+      </c>
+      <c r="K41">
+        <v>0.8599999999999994</v>
+      </c>
+      <c r="L41">
+        <v>4.9</v>
+      </c>
+      <c r="M41">
+        <v>0.03512808</v>
+      </c>
+      <c r="N41">
+        <v>4.864871920000001</v>
+      </c>
+      <c r="O41">
+        <v>0.9729743840000001</v>
+      </c>
+      <c r="P41">
+        <v>3.891897536000001</v>
+      </c>
+      <c r="Q41">
+        <v>4.751897536</v>
+      </c>
+      <c r="R41">
+        <v>0.639344262295082</v>
+      </c>
+      <c r="S41">
+        <v>0.09366284116342885</v>
+      </c>
+      <c r="T41">
+        <v>1.434240220905637</v>
+      </c>
+      <c r="U41">
+        <v>0.0162</v>
+      </c>
+      <c r="V41">
+        <v>0.2</v>
+      </c>
+      <c r="W41">
+        <v>0.01296</v>
+      </c>
+      <c r="X41" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y41">
+        <v>139.4895479627694</v>
+      </c>
+      <c r="Z41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42">
+        <v>0.4</v>
+      </c>
+      <c r="B42">
+        <v>0.06211370331986581</v>
+      </c>
+      <c r="C42">
+        <v>3.453043492121279</v>
+      </c>
+      <c r="D42">
+        <v>4.882043492121279</v>
+      </c>
+      <c r="E42">
+        <v>-1.766</v>
+      </c>
+      <c r="F42">
+        <v>2.224</v>
+      </c>
+      <c r="G42">
+        <v>0.795</v>
+      </c>
+      <c r="H42">
+        <v>1.57</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>5.76</v>
+      </c>
+      <c r="K42">
+        <v>0.8599999999999994</v>
+      </c>
+      <c r="L42">
+        <v>4.9</v>
+      </c>
+      <c r="M42">
+        <v>0.0360288</v>
+      </c>
+      <c r="N42">
+        <v>4.8639712</v>
+      </c>
+      <c r="O42">
+        <v>0.97279424</v>
+      </c>
+      <c r="P42">
+        <v>3.89117696</v>
+      </c>
+      <c r="Q42">
+        <v>4.75117696</v>
+      </c>
+      <c r="R42">
+        <v>0.6666666666666667</v>
+      </c>
+      <c r="S42">
+        <v>0.09488283886644303</v>
+      </c>
+      <c r="T42">
+        <v>1.454981221931026</v>
+      </c>
+      <c r="U42">
+        <v>0.0162</v>
+      </c>
+      <c r="V42">
+        <v>0.2</v>
+      </c>
+      <c r="W42">
+        <v>0.01296</v>
+      </c>
+      <c r="X42" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y42">
+        <v>136.0023092637001</v>
+      </c>
+      <c r="Z42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43">
+        <v>0.41</v>
+      </c>
+      <c r="B43">
+        <v>0.06203867353004001</v>
+      </c>
+      <c r="C43">
+        <v>3.398218227987229</v>
+      </c>
+      <c r="D43">
+        <v>4.882818227987229</v>
+      </c>
+      <c r="E43">
+        <v>-1.7104</v>
+      </c>
+      <c r="F43">
+        <v>2.2796</v>
+      </c>
+      <c r="G43">
+        <v>0.795</v>
+      </c>
+      <c r="H43">
+        <v>1.57</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>5.76</v>
+      </c>
+      <c r="K43">
+        <v>0.8599999999999994</v>
+      </c>
+      <c r="L43">
+        <v>4.9</v>
+      </c>
+      <c r="M43">
+        <v>0.03692952</v>
+      </c>
+      <c r="N43">
+        <v>4.86307048</v>
+      </c>
+      <c r="O43">
+        <v>0.972614096</v>
+      </c>
+      <c r="P43">
+        <v>3.890456384</v>
+      </c>
+      <c r="Q43">
+        <v>4.750456384</v>
+      </c>
+      <c r="R43">
+        <v>0.6949152542372882</v>
+      </c>
+      <c r="S43">
+        <v>0.09614419242379664</v>
+      </c>
+      <c r="T43">
+        <v>1.476425307736936</v>
+      </c>
+      <c r="U43">
+        <v>0.0162</v>
+      </c>
+      <c r="V43">
+        <v>0.2</v>
+      </c>
+      <c r="W43">
+        <v>0.01296</v>
+      </c>
+      <c r="X43" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y43">
+        <v>132.6851797694636</v>
+      </c>
+      <c r="Z43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44">
+        <v>0.42</v>
+      </c>
+      <c r="B44">
+        <v>0.06196364374021422</v>
+      </c>
+      <c r="C44">
+        <v>3.343393209779268</v>
+      </c>
+      <c r="D44">
+        <v>4.883593209779268</v>
+      </c>
+      <c r="E44">
+        <v>-1.6548</v>
+      </c>
+      <c r="F44">
+        <v>2.3352</v>
+      </c>
+      <c r="G44">
+        <v>0.795</v>
+      </c>
+      <c r="H44">
+        <v>1.57</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>5.76</v>
+      </c>
+      <c r="K44">
+        <v>0.8599999999999994</v>
+      </c>
+      <c r="L44">
+        <v>4.9</v>
+      </c>
+      <c r="M44">
+        <v>0.03783023999999999</v>
+      </c>
+      <c r="N44">
+        <v>4.86216976</v>
+      </c>
+      <c r="O44">
+        <v>0.9724339520000002</v>
+      </c>
+      <c r="P44">
+        <v>3.889735808</v>
+      </c>
+      <c r="Q44">
+        <v>4.749735808</v>
+      </c>
+      <c r="R44">
+        <v>0.7241379310344827</v>
+      </c>
+      <c r="S44">
+        <v>0.0974490409314038</v>
+      </c>
+      <c r="T44">
+        <v>1.498608844777533</v>
+      </c>
+      <c r="U44">
+        <v>0.0162</v>
+      </c>
+      <c r="V44">
+        <v>0.2</v>
+      </c>
+      <c r="W44">
+        <v>0.01296</v>
+      </c>
+      <c r="X44" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y44">
+        <v>129.5260088225716</v>
+      </c>
+      <c r="Z44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45">
+        <v>0.43</v>
+      </c>
+      <c r="B45">
+        <v>0.06188861395038843</v>
+      </c>
+      <c r="C45">
+        <v>3.288568437614508</v>
+      </c>
+      <c r="D45">
+        <v>4.884368437614508</v>
+      </c>
+      <c r="E45">
+        <v>-1.5992</v>
+      </c>
+      <c r="F45">
+        <v>2.3908</v>
+      </c>
+      <c r="G45">
+        <v>0.795</v>
+      </c>
+      <c r="H45">
+        <v>1.57</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>5.76</v>
+      </c>
+      <c r="K45">
+        <v>0.8599999999999994</v>
+      </c>
+      <c r="L45">
+        <v>4.9</v>
+      </c>
+      <c r="M45">
+        <v>0.03873096</v>
+      </c>
+      <c r="N45">
+        <v>4.861269040000001</v>
+      </c>
+      <c r="O45">
+        <v>0.9722538080000002</v>
+      </c>
+      <c r="P45">
+        <v>3.889015232000001</v>
+      </c>
+      <c r="Q45">
+        <v>4.749015232</v>
+      </c>
+      <c r="R45">
+        <v>0.7543859649122806</v>
+      </c>
+      <c r="S45">
+        <v>0.09879967359717268</v>
+      </c>
+      <c r="T45">
+        <v>1.521570751538853</v>
+      </c>
+      <c r="U45">
+        <v>0.0162</v>
+      </c>
+      <c r="V45">
+        <v>0.2</v>
+      </c>
+      <c r="W45">
+        <v>0.01296</v>
+      </c>
+      <c r="X45" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y45">
+        <v>126.513776059256</v>
+      </c>
+      <c r="Z45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46">
+        <v>0.44</v>
+      </c>
+      <c r="B46">
+        <v>0.06181358416056262</v>
+      </c>
+      <c r="C46">
+        <v>3.233743911610141</v>
+      </c>
+      <c r="D46">
+        <v>4.885143911610141</v>
+      </c>
+      <c r="E46">
+        <v>-1.5436</v>
+      </c>
+      <c r="F46">
+        <v>2.4464</v>
+      </c>
+      <c r="G46">
+        <v>0.795</v>
+      </c>
+      <c r="H46">
+        <v>1.57</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>5.76</v>
+      </c>
+      <c r="K46">
+        <v>0.8599999999999994</v>
+      </c>
+      <c r="L46">
+        <v>4.9</v>
+      </c>
+      <c r="M46">
+        <v>0.03963168</v>
+      </c>
+      <c r="N46">
+        <v>4.86036832</v>
+      </c>
+      <c r="O46">
+        <v>0.9720736640000001</v>
+      </c>
+      <c r="P46">
+        <v>3.888294656</v>
+      </c>
+      <c r="Q46">
+        <v>4.748294656</v>
+      </c>
+      <c r="R46">
+        <v>0.7857142857142857</v>
+      </c>
+      <c r="S46">
+        <v>0.1001985431438618</v>
+      </c>
+      <c r="T46">
+        <v>1.545352726398791</v>
+      </c>
+      <c r="U46">
+        <v>0.0162</v>
+      </c>
+      <c r="V46">
+        <v>0.2</v>
+      </c>
+      <c r="W46">
+        <v>0.01296</v>
+      </c>
+      <c r="X46" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y46">
+        <v>123.6384629670001</v>
+      </c>
+      <c r="Z46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47">
+        <v>0.45</v>
+      </c>
+      <c r="B47">
+        <v>0.06173855437073683</v>
+      </c>
+      <c r="C47">
+        <v>3.178919631883433</v>
+      </c>
+      <c r="D47">
+        <v>4.885919631883433</v>
+      </c>
+      <c r="E47">
+        <v>-1.488</v>
+      </c>
+      <c r="F47">
+        <v>2.502</v>
+      </c>
+      <c r="G47">
+        <v>0.795</v>
+      </c>
+      <c r="H47">
+        <v>1.57</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>5.76</v>
+      </c>
+      <c r="K47">
+        <v>0.8599999999999994</v>
+      </c>
+      <c r="L47">
+        <v>4.9</v>
+      </c>
+      <c r="M47">
+        <v>0.0405324</v>
+      </c>
+      <c r="N47">
+        <v>4.8594676</v>
+      </c>
+      <c r="O47">
+        <v>0.9718935200000001</v>
+      </c>
+      <c r="P47">
+        <v>3.88757408</v>
+      </c>
+      <c r="Q47">
+        <v>4.74757408</v>
+      </c>
+      <c r="R47">
+        <v>0.8181818181818181</v>
+      </c>
+      <c r="S47">
+        <v>0.101648280674067</v>
+      </c>
+      <c r="T47">
+        <v>1.569999500344545</v>
+      </c>
+      <c r="U47">
+        <v>0.0162</v>
+      </c>
+      <c r="V47">
+        <v>0.2</v>
+      </c>
+      <c r="W47">
+        <v>0.01296</v>
+      </c>
+      <c r="X47" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y47">
+        <v>120.8909415677335</v>
+      </c>
+      <c r="Z47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48">
+        <v>0.46</v>
+      </c>
+      <c r="B48">
+        <v>0.06166352458091105</v>
+      </c>
+      <c r="C48">
+        <v>3.124095598551719</v>
+      </c>
+      <c r="D48">
+        <v>4.88669559855172</v>
+      </c>
+      <c r="E48">
+        <v>-1.4324</v>
+      </c>
+      <c r="F48">
+        <v>2.5576</v>
+      </c>
+      <c r="G48">
+        <v>0.795</v>
+      </c>
+      <c r="H48">
+        <v>1.57</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>5.76</v>
+      </c>
+      <c r="K48">
+        <v>0.8599999999999994</v>
+      </c>
+      <c r="L48">
+        <v>4.9</v>
+      </c>
+      <c r="M48">
+        <v>0.04143312</v>
+      </c>
+      <c r="N48">
+        <v>4.858566880000001</v>
+      </c>
+      <c r="O48">
+        <v>0.9717133760000002</v>
+      </c>
+      <c r="P48">
+        <v>3.886853504</v>
+      </c>
+      <c r="Q48">
+        <v>4.746853504</v>
+      </c>
+      <c r="R48">
+        <v>0.8518518518518519</v>
+      </c>
+      <c r="S48">
+        <v>0.1031517121868723</v>
+      </c>
+      <c r="T48">
+        <v>1.595559117769772</v>
+      </c>
+      <c r="U48">
+        <v>0.0162</v>
+      </c>
+      <c r="V48">
+        <v>0.2</v>
+      </c>
+      <c r="W48">
+        <v>0.01296</v>
+      </c>
+      <c r="X48" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y48">
+        <v>118.2628776206088</v>
+      </c>
+      <c r="Z48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49">
+        <v>0.47</v>
+      </c>
+      <c r="B49">
+        <v>0.06158849479108525</v>
+      </c>
+      <c r="C49">
+        <v>3.069271811732418</v>
+      </c>
+      <c r="D49">
+        <v>4.887471811732419</v>
+      </c>
+      <c r="E49">
+        <v>-1.3768</v>
+      </c>
+      <c r="F49">
+        <v>2.6132</v>
+      </c>
+      <c r="G49">
+        <v>0.795</v>
+      </c>
+      <c r="H49">
+        <v>1.57</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>5.76</v>
+      </c>
+      <c r="K49">
+        <v>0.8599999999999994</v>
+      </c>
+      <c r="L49">
+        <v>4.9</v>
+      </c>
+      <c r="M49">
+        <v>0.04233384</v>
+      </c>
+      <c r="N49">
+        <v>4.85766616</v>
+      </c>
+      <c r="O49">
+        <v>0.9715332320000001</v>
+      </c>
+      <c r="P49">
+        <v>3.886132928</v>
+      </c>
+      <c r="Q49">
+        <v>4.746132928</v>
+      </c>
+      <c r="R49">
+        <v>0.8867924528301887</v>
+      </c>
+      <c r="S49">
+        <v>0.1047118769643118</v>
+      </c>
+      <c r="T49">
+        <v>1.622083249060102</v>
+      </c>
+      <c r="U49">
+        <v>0.0162</v>
+      </c>
+      <c r="V49">
+        <v>0.2</v>
+      </c>
+      <c r="W49">
+        <v>0.01296</v>
+      </c>
+      <c r="X49" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y49">
+        <v>115.7466461818724</v>
+      </c>
+      <c r="Z49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50">
+        <v>0.48</v>
+      </c>
+      <c r="B50">
+        <v>0.06151346500125945</v>
+      </c>
+      <c r="C50">
+        <v>3.014448271543015</v>
+      </c>
+      <c r="D50">
+        <v>4.888248271543016</v>
+      </c>
+      <c r="E50">
+        <v>-1.3212</v>
+      </c>
+      <c r="F50">
+        <v>2.6688</v>
+      </c>
+      <c r="G50">
+        <v>0.795</v>
+      </c>
+      <c r="H50">
+        <v>1.57</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>5.76</v>
+      </c>
+      <c r="K50">
+        <v>0.8599999999999994</v>
+      </c>
+      <c r="L50">
+        <v>4.9</v>
+      </c>
+      <c r="M50">
+        <v>0.04323456</v>
+      </c>
+      <c r="N50">
+        <v>4.85676544</v>
+      </c>
+      <c r="O50">
+        <v>0.9713530880000001</v>
+      </c>
+      <c r="P50">
+        <v>3.885412352</v>
+      </c>
+      <c r="Q50">
+        <v>4.745412352</v>
+      </c>
+      <c r="R50">
+        <v>0.923076923076923</v>
+      </c>
+      <c r="S50">
+        <v>0.1063320480793451</v>
+      </c>
+      <c r="T50">
+        <v>1.649627539246213</v>
+      </c>
+      <c r="U50">
+        <v>0.0162</v>
+      </c>
+      <c r="V50">
+        <v>0.2</v>
+      </c>
+      <c r="W50">
+        <v>0.01296</v>
+      </c>
+      <c r="X50" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y50">
+        <v>113.3352577197501</v>
+      </c>
+      <c r="Z50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51">
+        <v>0.49</v>
+      </c>
+      <c r="B51">
+        <v>0.06143843521143365</v>
+      </c>
+      <c r="C51">
+        <v>2.959624978101075</v>
+      </c>
+      <c r="D51">
+        <v>4.889024978101075</v>
+      </c>
+      <c r="E51">
+        <v>-1.2656</v>
+      </c>
+      <c r="F51">
+        <v>2.7244</v>
+      </c>
+      <c r="G51">
+        <v>0.795</v>
+      </c>
+      <c r="H51">
+        <v>1.57</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>5.76</v>
+      </c>
+      <c r="K51">
+        <v>0.8599999999999994</v>
+      </c>
+      <c r="L51">
+        <v>4.9</v>
+      </c>
+      <c r="M51">
+        <v>0.04413528</v>
+      </c>
+      <c r="N51">
+        <v>4.85586472</v>
+      </c>
+      <c r="O51">
+        <v>0.9711729440000001</v>
+      </c>
+      <c r="P51">
+        <v>3.884691776</v>
+      </c>
+      <c r="Q51">
+        <v>4.744691776</v>
+      </c>
+      <c r="R51">
+        <v>0.9607843137254901</v>
+      </c>
+      <c r="S51">
+        <v>0.1080157553165366</v>
+      </c>
+      <c r="T51">
+        <v>1.678251997674917</v>
+      </c>
+      <c r="U51">
+        <v>0.0162</v>
+      </c>
+      <c r="V51">
+        <v>0.2</v>
+      </c>
+      <c r="W51">
+        <v>0.01296</v>
+      </c>
+      <c r="X51" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y51">
+        <v>111.0222932764899</v>
+      </c>
+      <c r="Z51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52">
+        <v>0.5</v>
+      </c>
+      <c r="B52">
+        <v>0.06136340542160786</v>
+      </c>
+      <c r="C52">
+        <v>2.904801931524234</v>
+      </c>
+      <c r="D52">
+        <v>4.889801931524234</v>
+      </c>
+      <c r="E52">
+        <v>-1.21</v>
+      </c>
+      <c r="F52">
+        <v>2.78</v>
+      </c>
+      <c r="G52">
+        <v>0.795</v>
+      </c>
+      <c r="H52">
+        <v>1.57</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>5.76</v>
+      </c>
+      <c r="K52">
+        <v>0.8599999999999994</v>
+      </c>
+      <c r="L52">
+        <v>4.9</v>
+      </c>
+      <c r="M52">
+        <v>0.045036</v>
+      </c>
+      <c r="N52">
+        <v>4.854964000000001</v>
+      </c>
+      <c r="O52">
+        <v>0.9709928000000002</v>
+      </c>
+      <c r="P52">
+        <v>3.8839712</v>
+      </c>
+      <c r="Q52">
+        <v>4.7439712</v>
+      </c>
+      <c r="R52">
+        <v>1</v>
+      </c>
+      <c r="S52">
+        <v>0.1097668108432157</v>
+      </c>
+      <c r="T52">
+        <v>1.708021434440769</v>
+      </c>
+      <c r="U52">
+        <v>0.0162</v>
+      </c>
+      <c r="V52">
+        <v>0.2</v>
+      </c>
+      <c r="W52">
+        <v>0.01296</v>
+      </c>
+      <c r="X52" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y52">
+        <v>108.8018474109601</v>
+      </c>
+      <c r="Z52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53">
+        <v>0.51</v>
+      </c>
+      <c r="B53">
+        <v>0.06128837563178206</v>
+      </c>
+      <c r="C53">
+        <v>2.849979131930204</v>
+      </c>
+      <c r="D53">
+        <v>4.890579131930204</v>
+      </c>
+      <c r="E53">
+        <v>-1.1544</v>
+      </c>
+      <c r="F53">
+        <v>2.8356</v>
+      </c>
+      <c r="G53">
+        <v>0.795</v>
+      </c>
+      <c r="H53">
+        <v>1.57</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <v>5.76</v>
+      </c>
+      <c r="K53">
+        <v>0.8599999999999994</v>
+      </c>
+      <c r="L53">
+        <v>4.9</v>
+      </c>
+      <c r="M53">
+        <v>0.04593672</v>
+      </c>
+      <c r="N53">
+        <v>4.85406328</v>
+      </c>
+      <c r="O53">
+        <v>0.9708126560000001</v>
+      </c>
+      <c r="P53">
+        <v>3.883250624</v>
+      </c>
+      <c r="Q53">
+        <v>4.743250624</v>
+      </c>
+      <c r="R53">
+        <v>1.040816326530612</v>
+      </c>
+      <c r="S53">
+        <v>0.111589338024045</v>
+      </c>
+      <c r="T53">
+        <v>1.739005950258289</v>
+      </c>
+      <c r="U53">
+        <v>0.0162</v>
+      </c>
+      <c r="V53">
+        <v>0.2</v>
+      </c>
+      <c r="W53">
+        <v>0.01296</v>
+      </c>
+      <c r="X53" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y53">
+        <v>106.6684778538825</v>
+      </c>
+      <c r="Z53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54">
+        <v>0.52</v>
+      </c>
+      <c r="B54">
+        <v>0.06121334584195626</v>
+      </c>
+      <c r="C54">
+        <v>2.795156579436775</v>
+      </c>
+      <c r="D54">
+        <v>4.891356579436775</v>
+      </c>
+      <c r="E54">
+        <v>-1.0988</v>
+      </c>
+      <c r="F54">
+        <v>2.8912</v>
+      </c>
+      <c r="G54">
+        <v>0.795</v>
+      </c>
+      <c r="H54">
+        <v>1.57</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <v>5.76</v>
+      </c>
+      <c r="K54">
+        <v>0.8599999999999994</v>
+      </c>
+      <c r="L54">
+        <v>4.9</v>
+      </c>
+      <c r="M54">
+        <v>0.04683744000000001</v>
+      </c>
+      <c r="N54">
+        <v>4.85316256</v>
+      </c>
+      <c r="O54">
+        <v>0.9706325120000001</v>
+      </c>
+      <c r="P54">
+        <v>3.882530048</v>
+      </c>
+      <c r="Q54">
+        <v>4.742530048</v>
+      </c>
+      <c r="R54">
+        <v>1.083333333333333</v>
+      </c>
+      <c r="S54">
+        <v>0.1134878038374089</v>
+      </c>
+      <c r="T54">
+        <v>1.771281487568205</v>
+      </c>
+      <c r="U54">
+        <v>0.0162</v>
+      </c>
+      <c r="V54">
+        <v>0.2</v>
+      </c>
+      <c r="W54">
+        <v>0.01296</v>
+      </c>
+      <c r="X54" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y54">
+        <v>104.617160972077</v>
+      </c>
+      <c r="Z54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55">
+        <v>0.53</v>
+      </c>
+      <c r="B55">
+        <v>0.06113831605213047</v>
+      </c>
+      <c r="C55">
+        <v>2.740334274161806</v>
+      </c>
+      <c r="D55">
+        <v>4.892134274161807</v>
+      </c>
+      <c r="E55">
+        <v>-1.0432</v>
+      </c>
+      <c r="F55">
+        <v>2.946800000000001</v>
+      </c>
+      <c r="G55">
+        <v>0.795</v>
+      </c>
+      <c r="H55">
+        <v>1.57</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <v>5.76</v>
+      </c>
+      <c r="K55">
+        <v>0.8599999999999994</v>
+      </c>
+      <c r="L55">
+        <v>4.9</v>
+      </c>
+      <c r="M55">
+        <v>0.04773816000000001</v>
+      </c>
+      <c r="N55">
+        <v>4.852261840000001</v>
+      </c>
+      <c r="O55">
+        <v>0.9704523680000001</v>
+      </c>
+      <c r="P55">
+        <v>3.881809472</v>
+      </c>
+      <c r="Q55">
+        <v>4.741809472</v>
+      </c>
+      <c r="R55">
+        <v>1.127659574468085</v>
+      </c>
+      <c r="S55">
+        <v>0.1154670554300648</v>
+      </c>
+      <c r="T55">
+        <v>1.804930451997693</v>
+      </c>
+      <c r="U55">
+        <v>0.0162</v>
+      </c>
+      <c r="V55">
+        <v>0.2</v>
+      </c>
+      <c r="W55">
+        <v>0.01296</v>
+      </c>
+      <c r="X55" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y55">
+        <v>102.6432522744907</v>
+      </c>
+      <c r="Z55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56">
+        <v>0.54</v>
+      </c>
+      <c r="B56">
+        <v>0.06106328626230467</v>
+      </c>
+      <c r="C56">
+        <v>2.685512216223238</v>
+      </c>
+      <c r="D56">
+        <v>4.892912216223238</v>
+      </c>
+      <c r="E56">
+        <v>-0.9875999999999996</v>
+      </c>
+      <c r="F56">
+        <v>3.002400000000001</v>
+      </c>
+      <c r="G56">
+        <v>0.795</v>
+      </c>
+      <c r="H56">
+        <v>1.57</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <v>5.76</v>
+      </c>
+      <c r="K56">
+        <v>0.8599999999999994</v>
+      </c>
+      <c r="L56">
+        <v>4.9</v>
+      </c>
+      <c r="M56">
+        <v>0.04863888000000001</v>
+      </c>
+      <c r="N56">
+        <v>4.85136112</v>
+      </c>
+      <c r="O56">
+        <v>0.970272224</v>
+      </c>
+      <c r="P56">
+        <v>3.881088896</v>
+      </c>
+      <c r="Q56">
+        <v>4.741088895999999</v>
+      </c>
+      <c r="R56">
+        <v>1.173913043478261</v>
+      </c>
+      <c r="S56">
+        <v>0.1175323614397928</v>
+      </c>
+      <c r="T56">
+        <v>1.840042414880636</v>
+      </c>
+      <c r="U56">
+        <v>0.0162</v>
+      </c>
+      <c r="V56">
+        <v>0.2</v>
+      </c>
+      <c r="W56">
+        <v>0.01296</v>
+      </c>
+      <c r="X56" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y56">
+        <v>100.7424513064445</v>
+      </c>
+      <c r="Z56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57">
+        <v>0.55</v>
+      </c>
+      <c r="B57">
+        <v>0.06098825647247888</v>
+      </c>
+      <c r="C57">
+        <v>2.630690405739079</v>
+      </c>
+      <c r="D57">
+        <v>4.89369040573908</v>
+      </c>
+      <c r="E57">
+        <v>-0.9319999999999995</v>
+      </c>
+      <c r="F57">
+        <v>3.058000000000001</v>
+      </c>
+      <c r="G57">
+        <v>0.795</v>
+      </c>
+      <c r="H57">
+        <v>1.57</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>5.76</v>
+      </c>
+      <c r="K57">
+        <v>0.8599999999999994</v>
+      </c>
+      <c r="L57">
+        <v>4.9</v>
+      </c>
+      <c r="M57">
+        <v>0.04953960000000001</v>
+      </c>
+      <c r="N57">
+        <v>4.8504604</v>
+      </c>
+      <c r="O57">
+        <v>0.9700920800000001</v>
+      </c>
+      <c r="P57">
+        <v>3.88036832</v>
+      </c>
+      <c r="Q57">
+        <v>4.74036832</v>
+      </c>
+      <c r="R57">
+        <v>1.222222222222223</v>
+      </c>
+      <c r="S57">
+        <v>0.1196894588277309</v>
+      </c>
+      <c r="T57">
+        <v>1.876714909447265</v>
+      </c>
+      <c r="U57">
+        <v>0.0162</v>
+      </c>
+      <c r="V57">
+        <v>0.2</v>
+      </c>
+      <c r="W57">
+        <v>0.01296</v>
+      </c>
+      <c r="X57" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y57">
+        <v>98.9107703736001</v>
+      </c>
+      <c r="Z57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="B58">
+        <v>0.06091322668265309</v>
+      </c>
+      <c r="C58">
+        <v>2.575868842827421</v>
+      </c>
+      <c r="D58">
+        <v>4.894468842827421</v>
+      </c>
+      <c r="E58">
+        <v>-0.8763999999999998</v>
+      </c>
+      <c r="F58">
+        <v>3.1136</v>
+      </c>
+      <c r="G58">
+        <v>0.795</v>
+      </c>
+      <c r="H58">
+        <v>1.57</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <v>5.76</v>
+      </c>
+      <c r="K58">
+        <v>0.8599999999999994</v>
+      </c>
+      <c r="L58">
+        <v>4.9</v>
+      </c>
+      <c r="M58">
+        <v>0.05044032</v>
+      </c>
+      <c r="N58">
+        <v>4.84955968</v>
+      </c>
+      <c r="O58">
+        <v>0.9699119360000001</v>
+      </c>
+      <c r="P58">
+        <v>3.879647744000001</v>
+      </c>
+      <c r="Q58">
+        <v>4.739647744</v>
+      </c>
+      <c r="R58">
+        <v>1.272727272727273</v>
+      </c>
+      <c r="S58">
+        <v>0.1219446060969388</v>
+      </c>
+      <c r="T58">
+        <v>1.915054335585105</v>
+      </c>
+      <c r="U58">
+        <v>0.0162</v>
+      </c>
+      <c r="V58">
+        <v>0.2</v>
+      </c>
+      <c r="W58">
+        <v>0.01296</v>
+      </c>
+      <c r="X58" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y58">
+        <v>97.14450661692868</v>
+      </c>
+      <c r="Z58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59">
+        <v>0.5700000000000001</v>
+      </c>
+      <c r="B59">
+        <v>0.0608381968928273</v>
+      </c>
+      <c r="C59">
+        <v>2.521047527606422</v>
+      </c>
+      <c r="D59">
+        <v>4.895247527606423</v>
+      </c>
+      <c r="E59">
+        <v>-0.8207999999999998</v>
+      </c>
+      <c r="F59">
+        <v>3.1692</v>
+      </c>
+      <c r="G59">
+        <v>0.795</v>
+      </c>
+      <c r="H59">
+        <v>1.57</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <v>5.76</v>
+      </c>
+      <c r="K59">
+        <v>0.8599999999999994</v>
+      </c>
+      <c r="L59">
+        <v>4.9</v>
+      </c>
+      <c r="M59">
+        <v>0.05134104</v>
+      </c>
+      <c r="N59">
+        <v>4.848658960000001</v>
+      </c>
+      <c r="O59">
+        <v>0.9697317920000001</v>
+      </c>
+      <c r="P59">
+        <v>3.878927168000001</v>
+      </c>
+      <c r="Q59">
+        <v>4.738927168</v>
+      </c>
+      <c r="R59">
+        <v>1.325581395348838</v>
+      </c>
+      <c r="S59">
+        <v>0.1243046439368077</v>
+      </c>
+      <c r="T59">
+        <v>1.955176990845636</v>
+      </c>
+      <c r="U59">
+        <v>0.0162</v>
+      </c>
+      <c r="V59">
+        <v>0.2</v>
+      </c>
+      <c r="W59">
+        <v>0.01296</v>
+      </c>
+      <c r="X59" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y59">
+        <v>95.44021702715801</v>
+      </c>
+      <c r="Z59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60">
+        <v>0.58</v>
+      </c>
+      <c r="B60">
+        <v>0.06076316710300148</v>
+      </c>
+      <c r="C60">
+        <v>2.466226460194325</v>
+      </c>
+      <c r="D60">
+        <v>4.896026460194325</v>
+      </c>
+      <c r="E60">
+        <v>-0.7652000000000001</v>
+      </c>
+      <c r="F60">
+        <v>3.2248</v>
+      </c>
+      <c r="G60">
+        <v>0.795</v>
+      </c>
+      <c r="H60">
+        <v>1.57</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <v>5.76</v>
+      </c>
+      <c r="K60">
+        <v>0.8599999999999994</v>
+      </c>
+      <c r="L60">
+        <v>4.9</v>
+      </c>
+      <c r="M60">
+        <v>0.05224176</v>
+      </c>
+      <c r="N60">
+        <v>4.84775824</v>
+      </c>
+      <c r="O60">
+        <v>0.969551648</v>
+      </c>
+      <c r="P60">
+        <v>3.878206592</v>
+      </c>
+      <c r="Q60">
+        <v>4.738206591999999</v>
+      </c>
+      <c r="R60">
+        <v>1.380952380952381</v>
+      </c>
+      <c r="S60">
+        <v>0.1267770645309559</v>
+      </c>
+      <c r="T60">
+        <v>1.997210248737619</v>
+      </c>
+      <c r="U60">
+        <v>0.0162</v>
+      </c>
+      <c r="V60">
+        <v>0.2</v>
+      </c>
+      <c r="W60">
+        <v>0.01296</v>
+      </c>
+      <c r="X60" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y60">
+        <v>93.79469604393114</v>
+      </c>
+      <c r="Z60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61">
+        <v>0.59</v>
+      </c>
+      <c r="B61">
+        <v>0.06068813731317571</v>
+      </c>
+      <c r="C61">
+        <v>2.411405640709439</v>
+      </c>
+      <c r="D61">
+        <v>4.896805640709439</v>
+      </c>
+      <c r="E61">
+        <v>-0.7096</v>
+      </c>
+      <c r="F61">
+        <v>3.2804</v>
+      </c>
+      <c r="G61">
+        <v>0.795</v>
+      </c>
+      <c r="H61">
+        <v>1.57</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61">
+        <v>5.76</v>
+      </c>
+      <c r="K61">
+        <v>0.8599999999999994</v>
+      </c>
+      <c r="L61">
+        <v>4.9</v>
+      </c>
+      <c r="M61">
+        <v>0.05314248</v>
+      </c>
+      <c r="N61">
+        <v>4.84685752</v>
+      </c>
+      <c r="O61">
+        <v>0.9693715040000002</v>
+      </c>
+      <c r="P61">
+        <v>3.877486016</v>
+      </c>
+      <c r="Q61">
+        <v>4.737486016</v>
+      </c>
+      <c r="R61">
+        <v>1.439024390243902</v>
+      </c>
+      <c r="S61">
+        <v>0.1293700910077456</v>
+      </c>
+      <c r="T61">
+        <v>2.041293909453603</v>
+      </c>
+      <c r="U61">
+        <v>0.0162</v>
+      </c>
+      <c r="V61">
+        <v>0.2</v>
+      </c>
+      <c r="W61">
+        <v>0.01296</v>
+      </c>
+      <c r="X61" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y61">
+        <v>92.20495543301706</v>
+      </c>
+      <c r="Z61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62">
+        <v>0.6</v>
+      </c>
+      <c r="B62">
+        <v>0.0606131075233499</v>
+      </c>
+      <c r="C62">
+        <v>2.356585069270152</v>
+      </c>
+      <c r="D62">
+        <v>4.897585069270153</v>
+      </c>
+      <c r="E62">
+        <v>-0.6539999999999999</v>
+      </c>
+      <c r="F62">
+        <v>3.336</v>
+      </c>
+      <c r="G62">
+        <v>0.795</v>
+      </c>
+      <c r="H62">
+        <v>1.57</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>5.76</v>
+      </c>
+      <c r="K62">
+        <v>0.8599999999999994</v>
+      </c>
+      <c r="L62">
+        <v>4.9</v>
+      </c>
+      <c r="M62">
+        <v>0.0540432</v>
+      </c>
+      <c r="N62">
+        <v>4.845956800000001</v>
+      </c>
+      <c r="O62">
+        <v>0.9691913600000002</v>
+      </c>
+      <c r="P62">
+        <v>3.876765440000001</v>
+      </c>
+      <c r="Q62">
+        <v>4.73676544</v>
+      </c>
+      <c r="R62">
+        <v>1.5</v>
+      </c>
+      <c r="S62">
+        <v>0.1320927688083748</v>
+      </c>
+      <c r="T62">
+        <v>2.087581753205385</v>
+      </c>
+      <c r="U62">
+        <v>0.0162</v>
+      </c>
+      <c r="V62">
+        <v>0.2</v>
+      </c>
+      <c r="W62">
+        <v>0.01296</v>
+      </c>
+      <c r="X62" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y62">
+        <v>90.66820617580011</v>
+      </c>
+      <c r="Z62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63">
+        <v>0.61</v>
+      </c>
+      <c r="B63">
+        <v>0.06053807773352411</v>
+      </c>
+      <c r="C63">
+        <v>2.30176474599493</v>
+      </c>
+      <c r="D63">
+        <v>4.898364745994931</v>
+      </c>
+      <c r="E63">
+        <v>-0.5983999999999998</v>
+      </c>
+      <c r="F63">
+        <v>3.3916</v>
+      </c>
+      <c r="G63">
+        <v>0.795</v>
+      </c>
+      <c r="H63">
+        <v>1.57</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="J63">
+        <v>5.76</v>
+      </c>
+      <c r="K63">
+        <v>0.8599999999999994</v>
+      </c>
+      <c r="L63">
+        <v>4.9</v>
+      </c>
+      <c r="M63">
+        <v>0.05494392</v>
+      </c>
+      <c r="N63">
+        <v>4.84505608</v>
+      </c>
+      <c r="O63">
+        <v>0.9690112160000001</v>
+      </c>
+      <c r="P63">
+        <v>3.876044864</v>
+      </c>
+      <c r="Q63">
+        <v>4.736044863999999</v>
+      </c>
+      <c r="R63">
+        <v>1.564102564102564</v>
+      </c>
+      <c r="S63">
+        <v>0.1349550711116003</v>
+      </c>
+      <c r="T63">
+        <v>2.136243332534181</v>
+      </c>
+      <c r="U63">
+        <v>0.0162</v>
+      </c>
+      <c r="V63">
+        <v>0.2</v>
+      </c>
+      <c r="W63">
+        <v>0.01296</v>
+      </c>
+      <c r="X63" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y63">
+        <v>89.18184214013125</v>
+      </c>
+      <c r="Z63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64">
+        <v>0.62</v>
+      </c>
+      <c r="B64">
+        <v>0.06046304794369831</v>
+      </c>
+      <c r="C64">
+        <v>2.246944671002311</v>
+      </c>
+      <c r="D64">
+        <v>4.899144671002311</v>
+      </c>
+      <c r="E64">
+        <v>-0.5427999999999997</v>
+      </c>
+      <c r="F64">
+        <v>3.4472</v>
+      </c>
+      <c r="G64">
+        <v>0.795</v>
+      </c>
+      <c r="H64">
+        <v>1.57</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="J64">
+        <v>5.76</v>
+      </c>
+      <c r="K64">
+        <v>0.8599999999999994</v>
+      </c>
+      <c r="L64">
+        <v>4.9</v>
+      </c>
+      <c r="M64">
+        <v>0.05584464000000001</v>
+      </c>
+      <c r="N64">
+        <v>4.84415536</v>
+      </c>
+      <c r="O64">
+        <v>0.9688310720000001</v>
+      </c>
+      <c r="P64">
+        <v>3.875324288</v>
+      </c>
+      <c r="Q64">
+        <v>4.735324287999999</v>
+      </c>
+      <c r="R64">
+        <v>1.631578947368421</v>
+      </c>
+      <c r="S64">
+        <v>0.1379680209044692</v>
+      </c>
+      <c r="T64">
+        <v>2.187466047617125</v>
+      </c>
+      <c r="U64">
+        <v>0.0162</v>
+      </c>
+      <c r="V64">
+        <v>0.2</v>
+      </c>
+      <c r="W64">
+        <v>0.01296</v>
+      </c>
+      <c r="X64" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y64">
+        <v>87.74342533141945</v>
+      </c>
+      <c r="Z64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65">
+        <v>0.63</v>
+      </c>
+      <c r="B65">
+        <v>0.06038801815387252</v>
+      </c>
+      <c r="C65">
+        <v>2.192124844410909</v>
+      </c>
+      <c r="D65">
+        <v>4.89992484441091</v>
+      </c>
+      <c r="E65">
+        <v>-0.4872000000000001</v>
+      </c>
+      <c r="F65">
+        <v>3.5028</v>
+      </c>
+      <c r="G65">
+        <v>0.795</v>
+      </c>
+      <c r="H65">
+        <v>1.57</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="J65">
+        <v>5.76</v>
+      </c>
+      <c r="K65">
+        <v>0.8599999999999994</v>
+      </c>
+      <c r="L65">
+        <v>4.9</v>
+      </c>
+      <c r="M65">
+        <v>0.05674536</v>
+      </c>
+      <c r="N65">
+        <v>4.84325464</v>
+      </c>
+      <c r="O65">
+        <v>0.9686509280000002</v>
+      </c>
+      <c r="P65">
+        <v>3.874603712</v>
+      </c>
+      <c r="Q65">
+        <v>4.734603712</v>
+      </c>
+      <c r="R65">
+        <v>1.702702702702703</v>
+      </c>
+      <c r="S65">
+        <v>0.1411438328483041</v>
+      </c>
+      <c r="T65">
+        <v>2.241457558109959</v>
+      </c>
+      <c r="U65">
+        <v>0.0162</v>
+      </c>
+      <c r="V65">
+        <v>0.2</v>
+      </c>
+      <c r="W65">
+        <v>0.01296</v>
+      </c>
+      <c r="X65" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y65">
+        <v>86.35067254838106</v>
+      </c>
+      <c r="Z65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66">
+        <v>0.64</v>
+      </c>
+      <c r="B66">
+        <v>0.06031298836404672</v>
+      </c>
+      <c r="C66">
+        <v>2.137305266339417</v>
+      </c>
+      <c r="D66">
+        <v>4.900705266339417</v>
+      </c>
+      <c r="E66">
+        <v>-0.4316</v>
+      </c>
+      <c r="F66">
+        <v>3.5584</v>
+      </c>
+      <c r="G66">
+        <v>0.795</v>
+      </c>
+      <c r="H66">
+        <v>1.57</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
+      <c r="J66">
+        <v>5.76</v>
+      </c>
+      <c r="K66">
+        <v>0.8599999999999994</v>
+      </c>
+      <c r="L66">
+        <v>4.9</v>
+      </c>
+      <c r="M66">
+        <v>0.05764608</v>
+      </c>
+      <c r="N66">
+        <v>4.842353920000001</v>
+      </c>
+      <c r="O66">
+        <v>0.9684707840000002</v>
+      </c>
+      <c r="P66">
+        <v>3.873883136000001</v>
+      </c>
+      <c r="Q66">
+        <v>4.733883136</v>
+      </c>
+      <c r="R66">
+        <v>1.777777777777778</v>
+      </c>
+      <c r="S66">
+        <v>0.1444960787890187</v>
+      </c>
+      <c r="T66">
+        <v>2.298448596963504</v>
+      </c>
+      <c r="U66">
+        <v>0.0162</v>
+      </c>
+      <c r="V66">
+        <v>0.2</v>
+      </c>
+      <c r="W66">
+        <v>0.01296</v>
+      </c>
+      <c r="X66" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y66">
+        <v>85.0014432898126</v>
+      </c>
+      <c r="Z66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67">
+        <v>0.65</v>
+      </c>
+      <c r="B67">
+        <v>0.06023795857422093</v>
+      </c>
+      <c r="C67">
+        <v>2.082485936906598</v>
+      </c>
+      <c r="D67">
+        <v>4.901485936906599</v>
+      </c>
+      <c r="E67">
+        <v>-0.3759999999999999</v>
+      </c>
+      <c r="F67">
+        <v>3.614</v>
+      </c>
+      <c r="G67">
+        <v>0.795</v>
+      </c>
+      <c r="H67">
+        <v>1.57</v>
+      </c>
+      <c r="I67">
+        <v>0</v>
+      </c>
+      <c r="J67">
+        <v>5.76</v>
+      </c>
+      <c r="K67">
+        <v>0.8599999999999994</v>
+      </c>
+      <c r="L67">
+        <v>4.9</v>
+      </c>
+      <c r="M67">
+        <v>0.0585468</v>
+      </c>
+      <c r="N67">
+        <v>4.8414532</v>
+      </c>
+      <c r="O67">
+        <v>0.9682906400000001</v>
+      </c>
+      <c r="P67">
+        <v>3.87316256</v>
+      </c>
+      <c r="Q67">
+        <v>4.733162559999999</v>
+      </c>
+      <c r="R67">
+        <v>1.857142857142857</v>
+      </c>
+      <c r="S67">
+        <v>0.1480398816406312</v>
+      </c>
+      <c r="T67">
+        <v>2.358696266608681</v>
+      </c>
+      <c r="U67">
+        <v>0.0162</v>
+      </c>
+      <c r="V67">
+        <v>0.2</v>
+      </c>
+      <c r="W67">
+        <v>0.01296</v>
+      </c>
+      <c r="X67" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y67">
+        <v>83.69372877766163</v>
+      </c>
+      <c r="Z67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68">
+        <v>0.66</v>
+      </c>
+      <c r="B68">
+        <v>0.06016292878439514</v>
+      </c>
+      <c r="C68">
+        <v>2.027666856231294</v>
+      </c>
+      <c r="D68">
+        <v>4.902266856231295</v>
+      </c>
+      <c r="E68">
+        <v>-0.3203999999999998</v>
+      </c>
+      <c r="F68">
+        <v>3.6696</v>
+      </c>
+      <c r="G68">
+        <v>0.795</v>
+      </c>
+      <c r="H68">
+        <v>1.57</v>
+      </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
+      <c r="J68">
+        <v>5.76</v>
+      </c>
+      <c r="K68">
+        <v>0.8599999999999994</v>
+      </c>
+      <c r="L68">
+        <v>4.9</v>
+      </c>
+      <c r="M68">
+        <v>0.05944752</v>
+      </c>
+      <c r="N68">
+        <v>4.84055248</v>
+      </c>
+      <c r="O68">
+        <v>0.9681104960000001</v>
+      </c>
+      <c r="P68">
+        <v>3.872441984</v>
+      </c>
+      <c r="Q68">
+        <v>4.732441983999999</v>
+      </c>
+      <c r="R68">
+        <v>1.941176470588236</v>
+      </c>
+      <c r="S68">
+        <v>0.1517921434835151</v>
+      </c>
+      <c r="T68">
+        <v>2.422487916821222</v>
+      </c>
+      <c r="U68">
+        <v>0.0162</v>
+      </c>
+      <c r="V68">
+        <v>0.2</v>
+      </c>
+      <c r="W68">
+        <v>0.01296</v>
+      </c>
+      <c r="X68" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y68">
+        <v>82.42564197800009</v>
+      </c>
+      <c r="Z68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69">
+        <v>0.67</v>
+      </c>
+      <c r="B69">
+        <v>0.06008789899456934</v>
+      </c>
+      <c r="C69">
+        <v>1.972848024432424</v>
+      </c>
+      <c r="D69">
+        <v>4.903048024432425</v>
+      </c>
+      <c r="E69">
+        <v>-0.2647999999999997</v>
+      </c>
+      <c r="F69">
+        <v>3.725200000000001</v>
+      </c>
+      <c r="G69">
+        <v>0.795</v>
+      </c>
+      <c r="H69">
+        <v>1.57</v>
+      </c>
+      <c r="I69">
+        <v>0</v>
+      </c>
+      <c r="J69">
+        <v>5.76</v>
+      </c>
+      <c r="K69">
+        <v>0.8599999999999994</v>
+      </c>
+      <c r="L69">
+        <v>4.9</v>
+      </c>
+      <c r="M69">
+        <v>0.06034824</v>
+      </c>
+      <c r="N69">
+        <v>4.839651760000001</v>
+      </c>
+      <c r="O69">
+        <v>0.9679303520000002</v>
+      </c>
+      <c r="P69">
+        <v>3.871721408</v>
+      </c>
+      <c r="Q69">
+        <v>4.731721408</v>
+      </c>
+      <c r="R69">
+        <v>2.030303030303031</v>
+      </c>
+      <c r="S69">
+        <v>0.1557718151350586</v>
+      </c>
+      <c r="T69">
+        <v>2.490145727652705</v>
+      </c>
+      <c r="U69">
+        <v>0.0162</v>
+      </c>
+      <c r="V69">
+        <v>0.2</v>
+      </c>
+      <c r="W69">
+        <v>0.01296</v>
+      </c>
+      <c r="X69" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y69">
+        <v>81.19540851564189</v>
+      </c>
+      <c r="Z69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70">
+        <v>0.68</v>
+      </c>
+      <c r="B70">
+        <v>0.06001286920474354</v>
+      </c>
+      <c r="C70">
+        <v>1.91802944162898</v>
+      </c>
+      <c r="D70">
+        <v>4.90382944162898</v>
+      </c>
+      <c r="E70">
+        <v>-0.2091999999999996</v>
+      </c>
+      <c r="F70">
+        <v>3.780800000000001</v>
+      </c>
+      <c r="G70">
+        <v>0.795</v>
+      </c>
+      <c r="H70">
+        <v>1.57</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>5.76</v>
+      </c>
+      <c r="K70">
+        <v>0.8599999999999994</v>
+      </c>
+      <c r="L70">
+        <v>4.9</v>
+      </c>
+      <c r="M70">
+        <v>0.06124896000000001</v>
+      </c>
+      <c r="N70">
+        <v>4.83875104</v>
+      </c>
+      <c r="O70">
+        <v>0.967750208</v>
+      </c>
+      <c r="P70">
+        <v>3.871000832</v>
+      </c>
+      <c r="Q70">
+        <v>4.731000831999999</v>
+      </c>
+      <c r="R70">
+        <v>2.125</v>
+      </c>
+      <c r="S70">
+        <v>0.1600002162648236</v>
+      </c>
+      <c r="T70">
+        <v>2.562032151661154</v>
+      </c>
+      <c r="U70">
+        <v>0.0162</v>
+      </c>
+      <c r="V70">
+        <v>0.2</v>
+      </c>
+      <c r="W70">
+        <v>0.01296</v>
+      </c>
+      <c r="X70" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y70">
+        <v>80.00135839041185</v>
+      </c>
+      <c r="Z70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71">
+        <v>0.6900000000000001</v>
+      </c>
+      <c r="B71">
+        <v>0.05993783941491775</v>
+      </c>
+      <c r="C71">
+        <v>1.86321110794003</v>
+      </c>
+      <c r="D71">
+        <v>4.90461110794003</v>
+      </c>
+      <c r="E71">
+        <v>-0.1535999999999995</v>
+      </c>
+      <c r="F71">
+        <v>3.836400000000001</v>
+      </c>
+      <c r="G71">
+        <v>0.795</v>
+      </c>
+      <c r="H71">
+        <v>1.57</v>
+      </c>
+      <c r="I71">
+        <v>0</v>
+      </c>
+      <c r="J71">
+        <v>5.76</v>
+      </c>
+      <c r="K71">
+        <v>0.8599999999999994</v>
+      </c>
+      <c r="L71">
+        <v>4.9</v>
+      </c>
+      <c r="M71">
+        <v>0.06214968000000001</v>
+      </c>
+      <c r="N71">
+        <v>4.83785032</v>
+      </c>
+      <c r="O71">
+        <v>0.9675700640000001</v>
+      </c>
+      <c r="P71">
+        <v>3.870280256</v>
+      </c>
+      <c r="Q71">
+        <v>4.730280255999999</v>
+      </c>
+      <c r="R71">
+        <v>2.225806451612904</v>
+      </c>
+      <c r="S71">
+        <v>0.1645014174674766</v>
+      </c>
+      <c r="T71">
+        <v>2.638556409476601</v>
+      </c>
+      <c r="U71">
+        <v>0.0162</v>
+      </c>
+      <c r="V71">
+        <v>0.2</v>
+      </c>
+      <c r="W71">
+        <v>0.01296</v>
+      </c>
+      <c r="X71" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y71">
+        <v>78.84191841373921</v>
+      </c>
+      <c r="Z71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72">
+        <v>0.7000000000000001</v>
+      </c>
+      <c r="B72">
+        <v>0.05986280962509194</v>
+      </c>
+      <c r="C72">
+        <v>1.808393023484721</v>
+      </c>
+      <c r="D72">
+        <v>4.905393023484722</v>
+      </c>
+      <c r="E72">
+        <v>-0.09799999999999942</v>
+      </c>
+      <c r="F72">
+        <v>3.892000000000001</v>
+      </c>
+      <c r="G72">
+        <v>0.795</v>
+      </c>
+      <c r="H72">
+        <v>1.57</v>
+      </c>
+      <c r="I72">
+        <v>0</v>
+      </c>
+      <c r="J72">
+        <v>5.76</v>
+      </c>
+      <c r="K72">
+        <v>0.8599999999999994</v>
+      </c>
+      <c r="L72">
+        <v>4.9</v>
+      </c>
+      <c r="M72">
+        <v>0.06305040000000001</v>
+      </c>
+      <c r="N72">
+        <v>4.836949600000001</v>
+      </c>
+      <c r="O72">
+        <v>0.9673899200000001</v>
+      </c>
+      <c r="P72">
+        <v>3.869559680000001</v>
+      </c>
+      <c r="Q72">
+        <v>4.729559679999999</v>
+      </c>
+      <c r="R72">
+        <v>2.333333333333334</v>
+      </c>
+      <c r="S72">
+        <v>0.1693026987503065</v>
+      </c>
+      <c r="T72">
+        <v>2.720182284479744</v>
+      </c>
+      <c r="U72">
+        <v>0.0162</v>
+      </c>
+      <c r="V72">
+        <v>0.2</v>
+      </c>
+      <c r="W72">
+        <v>0.01296</v>
+      </c>
+      <c r="X72" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y72">
+        <v>77.71560529354295</v>
+      </c>
+      <c r="Z72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73">
+        <v>0.71</v>
+      </c>
+      <c r="B73">
+        <v>0.05978777983526616</v>
+      </c>
+      <c r="C73">
+        <v>1.753575188382273</v>
+      </c>
+      <c r="D73">
+        <v>4.906175188382273</v>
+      </c>
+      <c r="E73">
+        <v>-0.04240000000000022</v>
+      </c>
+      <c r="F73">
+        <v>3.9476</v>
+      </c>
+      <c r="G73">
+        <v>0.795</v>
+      </c>
+      <c r="H73">
+        <v>1.57</v>
+      </c>
+      <c r="I73">
+        <v>0</v>
+      </c>
+      <c r="J73">
+        <v>5.76</v>
+      </c>
+      <c r="K73">
+        <v>0.8599999999999994</v>
+      </c>
+      <c r="L73">
+        <v>4.9</v>
+      </c>
+      <c r="M73">
+        <v>0.06395112</v>
+      </c>
+      <c r="N73">
+        <v>4.836048880000001</v>
+      </c>
+      <c r="O73">
+        <v>0.9672097760000002</v>
+      </c>
+      <c r="P73">
+        <v>3.868839104000001</v>
+      </c>
+      <c r="Q73">
+        <v>4.728839104</v>
+      </c>
+      <c r="R73">
+        <v>2.448275862068965</v>
+      </c>
+      <c r="S73">
+        <v>0.1744351028802281</v>
+      </c>
+      <c r="T73">
+        <v>2.807437530172759</v>
+      </c>
+      <c r="U73">
+        <v>0.0162</v>
+      </c>
+      <c r="V73">
+        <v>0.2</v>
+      </c>
+      <c r="W73">
+        <v>0.01296</v>
+      </c>
+      <c r="X73" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y73">
+        <v>76.62101930349306</v>
+      </c>
+      <c r="Z73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74">
+        <v>0.72</v>
+      </c>
+      <c r="B74">
+        <v>0.05971275004544036</v>
+      </c>
+      <c r="C74">
+        <v>1.69875760275198</v>
+      </c>
+      <c r="D74">
+        <v>4.906957602751981</v>
+      </c>
+      <c r="E74">
+        <v>0.01320000000000032</v>
+      </c>
+      <c r="F74">
+        <v>4.003200000000001</v>
+      </c>
+      <c r="G74">
+        <v>0.795</v>
+      </c>
+      <c r="H74">
+        <v>1.57</v>
+      </c>
+      <c r="I74">
+        <v>0</v>
+      </c>
+      <c r="J74">
+        <v>5.76</v>
+      </c>
+      <c r="K74">
+        <v>0.8599999999999994</v>
+      </c>
+      <c r="L74">
+        <v>4.9</v>
+      </c>
+      <c r="M74">
+        <v>0.06485184000000001</v>
+      </c>
+      <c r="N74">
+        <v>4.83514816</v>
+      </c>
+      <c r="O74">
+        <v>0.967029632</v>
+      </c>
+      <c r="P74">
+        <v>3.868118528</v>
+      </c>
+      <c r="Q74">
+        <v>4.728118528</v>
+      </c>
+      <c r="R74">
+        <v>2.571428571428571</v>
+      </c>
+      <c r="S74">
+        <v>0.1799341073051441</v>
+      </c>
+      <c r="T74">
+        <v>2.900925293415275</v>
+      </c>
+      <c r="U74">
+        <v>0.0162</v>
+      </c>
+      <c r="V74">
+        <v>0.2</v>
+      </c>
+      <c r="W74">
+        <v>0.01296</v>
+      </c>
+      <c r="X74" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y74">
+        <v>75.55683847983342</v>
+      </c>
+      <c r="Z74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75">
+        <v>0.73</v>
+      </c>
+      <c r="B75">
+        <v>0.05963772025561456</v>
+      </c>
+      <c r="C75">
+        <v>1.64394026671322</v>
+      </c>
+      <c r="D75">
+        <v>4.907740266713221</v>
+      </c>
+      <c r="E75">
+        <v>0.06880000000000042</v>
+      </c>
+      <c r="F75">
+        <v>4.058800000000001</v>
+      </c>
+      <c r="G75">
+        <v>0.795</v>
+      </c>
+      <c r="H75">
+        <v>1.57</v>
+      </c>
+      <c r="I75">
+        <v>0</v>
+      </c>
+      <c r="J75">
+        <v>5.76</v>
+      </c>
+      <c r="K75">
+        <v>0.8599999999999994</v>
+      </c>
+      <c r="L75">
+        <v>4.9</v>
+      </c>
+      <c r="M75">
+        <v>0.06575256</v>
+      </c>
+      <c r="N75">
+        <v>4.83424744</v>
+      </c>
+      <c r="O75">
+        <v>0.9668494880000001</v>
+      </c>
+      <c r="P75">
+        <v>3.867397952</v>
+      </c>
+      <c r="Q75">
+        <v>4.727397952</v>
+      </c>
+      <c r="R75">
+        <v>2.703703703703703</v>
+      </c>
+      <c r="S75">
+        <v>0.185840445391165</v>
+      </c>
+      <c r="T75">
+        <v>3.001338076157236</v>
+      </c>
+      <c r="U75">
+        <v>0.0162</v>
+      </c>
+      <c r="V75">
+        <v>0.2</v>
+      </c>
+      <c r="W75">
+        <v>0.01296</v>
+      </c>
+      <c r="X75" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y75">
+        <v>74.52181329517816</v>
+      </c>
+      <c r="Z75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76">
+        <v>0.74</v>
+      </c>
+      <c r="B76">
+        <v>0.05956269046578876</v>
+      </c>
+      <c r="C76">
+        <v>1.589123180385442</v>
+      </c>
+      <c r="D76">
+        <v>4.908523180385442</v>
+      </c>
+      <c r="E76">
+        <v>0.1244000000000005</v>
+      </c>
+      <c r="F76">
+        <v>4.114400000000001</v>
+      </c>
+      <c r="G76">
+        <v>0.795</v>
+      </c>
+      <c r="H76">
+        <v>1.57</v>
+      </c>
+      <c r="I76">
+        <v>0</v>
+      </c>
+      <c r="J76">
+        <v>5.76</v>
+      </c>
+      <c r="K76">
+        <v>0.8599999999999994</v>
+      </c>
+      <c r="L76">
+        <v>4.9</v>
+      </c>
+      <c r="M76">
+        <v>0.06665328000000001</v>
+      </c>
+      <c r="N76">
+        <v>4.833346720000001</v>
+      </c>
+      <c r="O76">
+        <v>0.9666693440000002</v>
+      </c>
+      <c r="P76">
+        <v>3.866677376000001</v>
+      </c>
+      <c r="Q76">
+        <v>4.726677376</v>
+      </c>
+      <c r="R76">
+        <v>2.846153846153846</v>
+      </c>
+      <c r="S76">
+        <v>0.1922011171761106</v>
+      </c>
+      <c r="T76">
+        <v>3.109474919110118</v>
+      </c>
+      <c r="U76">
+        <v>0.0162</v>
+      </c>
+      <c r="V76">
+        <v>0.2</v>
+      </c>
+      <c r="W76">
+        <v>0.01296</v>
+      </c>
+      <c r="X76" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y76">
+        <v>73.51476176416224</v>
+      </c>
+      <c r="Z76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77">
+        <v>0.75</v>
+      </c>
+      <c r="B77">
+        <v>0.05948766067596298</v>
+      </c>
+      <c r="C77">
+        <v>1.534306343888167</v>
+      </c>
+      <c r="D77">
+        <v>4.909306343888167</v>
+      </c>
+      <c r="E77">
+        <v>0.1799999999999997</v>
+      </c>
+      <c r="F77">
+        <v>4.17</v>
+      </c>
+      <c r="G77">
+        <v>0.795</v>
+      </c>
+      <c r="H77">
+        <v>1.57</v>
+      </c>
+      <c r="I77">
+        <v>0</v>
+      </c>
+      <c r="J77">
+        <v>5.76</v>
+      </c>
+      <c r="K77">
+        <v>0.8599999999999994</v>
+      </c>
+      <c r="L77">
+        <v>4.9</v>
+      </c>
+      <c r="M77">
+        <v>0.06755399999999999</v>
+      </c>
+      <c r="N77">
+        <v>4.832446</v>
+      </c>
+      <c r="O77">
+        <v>0.9664892</v>
+      </c>
+      <c r="P77">
+        <v>3.8659568</v>
+      </c>
+      <c r="Q77">
+        <v>4.7259568</v>
+      </c>
+      <c r="R77">
+        <v>3</v>
+      </c>
+      <c r="S77">
+        <v>0.1990706427038519</v>
+      </c>
+      <c r="T77">
+        <v>3.226262709499231</v>
+      </c>
+      <c r="U77">
+        <v>0.0162</v>
+      </c>
+      <c r="V77">
+        <v>0.2</v>
+      </c>
+      <c r="W77">
+        <v>0.01296</v>
+      </c>
+      <c r="X77" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y77">
+        <v>72.5345649406401</v>
+      </c>
+      <c r="Z77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78">
+        <v>0.76</v>
+      </c>
+      <c r="B78">
+        <v>0.05941263088613718</v>
+      </c>
+      <c r="C78">
+        <v>1.479489757340999</v>
+      </c>
+      <c r="D78">
+        <v>4.910089757340999</v>
+      </c>
+      <c r="E78">
+        <v>0.2355999999999998</v>
+      </c>
+      <c r="F78">
+        <v>4.2256</v>
+      </c>
+      <c r="G78">
+        <v>0.795</v>
+      </c>
+      <c r="H78">
+        <v>1.57</v>
+      </c>
+      <c r="I78">
+        <v>0</v>
+      </c>
+      <c r="J78">
+        <v>5.76</v>
+      </c>
+      <c r="K78">
+        <v>0.8599999999999994</v>
+      </c>
+      <c r="L78">
+        <v>4.9</v>
+      </c>
+      <c r="M78">
+        <v>0.06845472</v>
+      </c>
+      <c r="N78">
+        <v>4.83154528</v>
+      </c>
+      <c r="O78">
+        <v>0.9663090560000001</v>
+      </c>
+      <c r="P78">
+        <v>3.865236224</v>
+      </c>
+      <c r="Q78">
+        <v>4.725236224</v>
+      </c>
+      <c r="R78">
+        <v>3.166666666666667</v>
+      </c>
+      <c r="S78">
+        <v>0.2065126286922382</v>
+      </c>
+      <c r="T78">
+        <v>3.352782815754103</v>
+      </c>
+      <c r="U78">
+        <v>0.0162</v>
+      </c>
+      <c r="V78">
+        <v>0.2</v>
+      </c>
+      <c r="W78">
+        <v>0.01296</v>
+      </c>
+      <c r="X78" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y78">
+        <v>71.5801627703685</v>
+      </c>
+      <c r="Z78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79">
+        <v>0.77</v>
+      </c>
+      <c r="B79">
+        <v>0.05933760109631139</v>
+      </c>
+      <c r="C79">
+        <v>1.424673420863618</v>
+      </c>
+      <c r="D79">
+        <v>4.910873420863618</v>
+      </c>
+      <c r="E79">
+        <v>0.2911999999999999</v>
+      </c>
+      <c r="F79">
+        <v>4.2812</v>
+      </c>
+      <c r="G79">
+        <v>0.795</v>
+      </c>
+      <c r="H79">
+        <v>1.57</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>5.76</v>
+      </c>
+      <c r="K79">
+        <v>0.8599999999999994</v>
+      </c>
+      <c r="L79">
+        <v>4.9</v>
+      </c>
+      <c r="M79">
+        <v>0.06935544</v>
+      </c>
+      <c r="N79">
+        <v>4.830644560000001</v>
+      </c>
+      <c r="O79">
+        <v>0.9661289120000002</v>
+      </c>
+      <c r="P79">
+        <v>3.864515648</v>
+      </c>
+      <c r="Q79">
+        <v>4.724515648</v>
+      </c>
+      <c r="R79">
+        <v>3.347826086956522</v>
+      </c>
+      <c r="S79">
+        <v>0.214601743897006</v>
+      </c>
+      <c r="T79">
+        <v>3.490304670378964</v>
+      </c>
+      <c r="U79">
+        <v>0.0162</v>
+      </c>
+      <c r="V79">
+        <v>0.2</v>
+      </c>
+      <c r="W79">
+        <v>0.01296</v>
+      </c>
+      <c r="X79" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y79">
+        <v>70.65055026685722</v>
+      </c>
+      <c r="Z79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80">
+        <v>0.78</v>
+      </c>
+      <c r="B80">
+        <v>0.05926257130648559</v>
+      </c>
+      <c r="C80">
+        <v>1.369857334575777</v>
+      </c>
+      <c r="D80">
+        <v>4.911657334575777</v>
+      </c>
+      <c r="E80">
+        <v>0.3468</v>
+      </c>
+      <c r="F80">
+        <v>4.3368</v>
+      </c>
+      <c r="G80">
+        <v>0.795</v>
+      </c>
+      <c r="H80">
+        <v>1.57</v>
+      </c>
+      <c r="I80">
+        <v>0</v>
+      </c>
+      <c r="J80">
+        <v>5.76</v>
+      </c>
+      <c r="K80">
+        <v>0.8599999999999994</v>
+      </c>
+      <c r="L80">
+        <v>4.9</v>
+      </c>
+      <c r="M80">
+        <v>0.07025616</v>
+      </c>
+      <c r="N80">
+        <v>4.829743840000001</v>
+      </c>
+      <c r="O80">
+        <v>0.9659487680000002</v>
+      </c>
+      <c r="P80">
+        <v>3.863795072000001</v>
+      </c>
+      <c r="Q80">
+        <v>4.723795072</v>
+      </c>
+      <c r="R80">
+        <v>3.545454545454546</v>
+      </c>
+      <c r="S80">
+        <v>0.2234262332112981</v>
+      </c>
+      <c r="T80">
+        <v>3.640328511787903</v>
+      </c>
+      <c r="U80">
+        <v>0.0162</v>
+      </c>
+      <c r="V80">
+        <v>0.2</v>
+      </c>
+      <c r="W80">
+        <v>0.01296</v>
+      </c>
+      <c r="X80" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y80">
+        <v>69.74477398138471</v>
+      </c>
+      <c r="Z80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81">
+        <v>0.79</v>
+      </c>
+      <c r="B81">
+        <v>0.05918754151665979</v>
+      </c>
+      <c r="C81">
+        <v>1.315041498597306</v>
+      </c>
+      <c r="D81">
+        <v>4.912441498597306</v>
+      </c>
+      <c r="E81">
+        <v>0.4024000000000001</v>
+      </c>
+      <c r="F81">
+        <v>4.3924</v>
+      </c>
+      <c r="G81">
+        <v>0.795</v>
+      </c>
+      <c r="H81">
+        <v>1.57</v>
+      </c>
+      <c r="I81">
+        <v>0</v>
+      </c>
+      <c r="J81">
+        <v>5.76</v>
+      </c>
+      <c r="K81">
+        <v>0.8599999999999994</v>
+      </c>
+      <c r="L81">
+        <v>4.9</v>
+      </c>
+      <c r="M81">
+        <v>0.07115688000000001</v>
+      </c>
+      <c r="N81">
+        <v>4.82884312</v>
+      </c>
+      <c r="O81">
+        <v>0.9657686240000001</v>
+      </c>
+      <c r="P81">
+        <v>3.863074496</v>
+      </c>
+      <c r="Q81">
+        <v>4.723074496</v>
+      </c>
+      <c r="R81">
+        <v>3.761904761904763</v>
+      </c>
+      <c r="S81">
+        <v>0.2330911500793324</v>
+      </c>
+      <c r="T81">
+        <v>3.804640338092931</v>
+      </c>
+      <c r="U81">
+        <v>0.0162</v>
+      </c>
+      <c r="V81">
+        <v>0.2</v>
+      </c>
+      <c r="W81">
+        <v>0.01296</v>
+      </c>
+      <c r="X81" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y81">
+        <v>68.861928741114</v>
+      </c>
+      <c r="Z81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82">
+        <v>0.8</v>
+      </c>
+      <c r="B82">
+        <v>0.059112511726834</v>
+      </c>
+      <c r="C82">
+        <v>1.260225913048113</v>
+      </c>
+      <c r="D82">
+        <v>4.913225913048113</v>
+      </c>
+      <c r="E82">
+        <v>0.4580000000000002</v>
+      </c>
+      <c r="F82">
+        <v>4.448</v>
+      </c>
+      <c r="G82">
+        <v>0.795</v>
+      </c>
+      <c r="H82">
+        <v>1.57</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <v>5.76</v>
+      </c>
+      <c r="K82">
+        <v>0.8599999999999994</v>
+      </c>
+      <c r="L82">
+        <v>4.9</v>
+      </c>
+      <c r="M82">
+        <v>0.0720576</v>
+      </c>
+      <c r="N82">
+        <v>4.8279424</v>
+      </c>
+      <c r="O82">
+        <v>0.9655884800000001</v>
+      </c>
+      <c r="P82">
+        <v>3.86235392</v>
+      </c>
+      <c r="Q82">
+        <v>4.72235392</v>
+      </c>
+      <c r="R82">
+        <v>4.000000000000001</v>
+      </c>
+      <c r="S82">
+        <v>0.24372255863417</v>
+      </c>
+      <c r="T82">
+        <v>3.985383347028463</v>
+      </c>
+      <c r="U82">
+        <v>0.0162</v>
+      </c>
+      <c r="V82">
+        <v>0.2</v>
+      </c>
+      <c r="W82">
+        <v>0.01296</v>
+      </c>
+      <c r="X82" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y82">
+        <v>68.00115463185008</v>
+      </c>
+      <c r="Z82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="B83">
+        <v>0.05903748193700821</v>
+      </c>
+      <c r="C83">
+        <v>1.205410578048184</v>
+      </c>
+      <c r="D83">
+        <v>4.914010578048185</v>
+      </c>
+      <c r="E83">
+        <v>0.5136000000000003</v>
+      </c>
+      <c r="F83">
+        <v>4.5036</v>
+      </c>
+      <c r="G83">
+        <v>0.795</v>
+      </c>
+      <c r="H83">
+        <v>1.57</v>
+      </c>
+      <c r="I83">
+        <v>0</v>
+      </c>
+      <c r="J83">
+        <v>5.76</v>
+      </c>
+      <c r="K83">
+        <v>0.8599999999999994</v>
+      </c>
+      <c r="L83">
+        <v>4.9</v>
+      </c>
+      <c r="M83">
+        <v>0.07295832000000001</v>
+      </c>
+      <c r="N83">
+        <v>4.827041680000001</v>
+      </c>
+      <c r="O83">
+        <v>0.9654083360000002</v>
+      </c>
+      <c r="P83">
+        <v>3.861633344</v>
+      </c>
+      <c r="Q83">
+        <v>4.721633344</v>
+      </c>
+      <c r="R83">
+        <v>4.263157894736843</v>
+      </c>
+      <c r="S83">
+        <v>0.2554730628263591</v>
+      </c>
+      <c r="T83">
+        <v>4.185151935851946</v>
+      </c>
+      <c r="U83">
+        <v>0.0162</v>
+      </c>
+      <c r="V83">
+        <v>0.2</v>
+      </c>
+      <c r="W83">
+        <v>0.01296</v>
+      </c>
+      <c r="X83" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y83">
+        <v>67.16163420429638</v>
+      </c>
+      <c r="Z83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84">
+        <v>0.8200000000000001</v>
+      </c>
+      <c r="B84">
+        <v>0.0589624521471824</v>
+      </c>
+      <c r="C84">
+        <v>1.150595493717578</v>
+      </c>
+      <c r="D84">
+        <v>4.914795493717579</v>
+      </c>
+      <c r="E84">
+        <v>0.5692000000000004</v>
+      </c>
+      <c r="F84">
+        <v>4.559200000000001</v>
+      </c>
+      <c r="G84">
+        <v>0.795</v>
+      </c>
+      <c r="H84">
+        <v>1.57</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84">
+        <v>5.76</v>
+      </c>
+      <c r="K84">
+        <v>0.8599999999999994</v>
+      </c>
+      <c r="L84">
+        <v>4.9</v>
+      </c>
+      <c r="M84">
+        <v>0.07385904</v>
+      </c>
+      <c r="N84">
+        <v>4.82614096</v>
+      </c>
+      <c r="O84">
+        <v>0.9652281920000001</v>
+      </c>
+      <c r="P84">
+        <v>3.860912768</v>
+      </c>
+      <c r="Q84">
+        <v>4.720912768</v>
+      </c>
+      <c r="R84">
+        <v>4.555555555555557</v>
+      </c>
+      <c r="S84">
+        <v>0.2685291785954579</v>
+      </c>
+      <c r="T84">
+        <v>4.407117034544703</v>
+      </c>
+      <c r="U84">
+        <v>0.0162</v>
+      </c>
+      <c r="V84">
+        <v>0.2</v>
+      </c>
+      <c r="W84">
+        <v>0.01296</v>
+      </c>
+      <c r="X84" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y84">
+        <v>66.34258988473178</v>
+      </c>
+      <c r="Z84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85">
+        <v>0.8300000000000001</v>
+      </c>
+      <c r="B85">
+        <v>0.05888742235735661</v>
+      </c>
+      <c r="C85">
+        <v>1.095780660176433</v>
+      </c>
+      <c r="D85">
+        <v>4.915580660176434</v>
+      </c>
+      <c r="E85">
+        <v>0.6248000000000005</v>
+      </c>
+      <c r="F85">
+        <v>4.614800000000001</v>
+      </c>
+      <c r="G85">
+        <v>0.795</v>
+      </c>
+      <c r="H85">
+        <v>1.57</v>
+      </c>
+      <c r="I85">
+        <v>0</v>
+      </c>
+      <c r="J85">
+        <v>5.76</v>
+      </c>
+      <c r="K85">
+        <v>0.8599999999999994</v>
+      </c>
+      <c r="L85">
+        <v>4.9</v>
+      </c>
+      <c r="M85">
+        <v>0.07475976000000001</v>
+      </c>
+      <c r="N85">
+        <v>4.82524024</v>
+      </c>
+      <c r="O85">
+        <v>0.9650480480000001</v>
+      </c>
+      <c r="P85">
+        <v>3.860192192</v>
+      </c>
+      <c r="Q85">
+        <v>4.720192192</v>
+      </c>
+      <c r="R85">
+        <v>4.882352941176473</v>
+      </c>
+      <c r="S85">
+        <v>0.2831213079844508</v>
+      </c>
+      <c r="T85">
+        <v>4.655195674260138</v>
+      </c>
+      <c r="U85">
+        <v>0.0162</v>
+      </c>
+      <c r="V85">
+        <v>0.2</v>
+      </c>
+      <c r="W85">
+        <v>0.01296</v>
+      </c>
+      <c r="X85" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y85">
+        <v>65.54328157286754</v>
+      </c>
+      <c r="Z85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86">
+        <v>0.84</v>
+      </c>
+      <c r="B86">
+        <v>0.05881239256753081</v>
+      </c>
+      <c r="C86">
+        <v>1.040966077544965</v>
+      </c>
+      <c r="D86">
+        <v>4.916366077544965</v>
+      </c>
+      <c r="E86">
+        <v>0.6803999999999997</v>
+      </c>
+      <c r="F86">
+        <v>4.6704</v>
+      </c>
+      <c r="G86">
+        <v>0.795</v>
+      </c>
+      <c r="H86">
+        <v>1.57</v>
+      </c>
+      <c r="I86">
+        <v>0</v>
+      </c>
+      <c r="J86">
+        <v>5.76</v>
+      </c>
+      <c r="K86">
+        <v>0.8599999999999994</v>
+      </c>
+      <c r="L86">
+        <v>4.9</v>
+      </c>
+      <c r="M86">
+        <v>0.07566047999999999</v>
+      </c>
+      <c r="N86">
+        <v>4.824339520000001</v>
+      </c>
+      <c r="O86">
+        <v>0.9648679040000001</v>
+      </c>
+      <c r="P86">
+        <v>3.859471616</v>
+      </c>
+      <c r="Q86">
+        <v>4.719471616</v>
+      </c>
+      <c r="R86">
+        <v>5.249999999999999</v>
+      </c>
+      <c r="S86">
+        <v>0.2995374535470675</v>
+      </c>
+      <c r="T86">
+        <v>4.934284143939999</v>
+      </c>
+      <c r="U86">
+        <v>0.0162</v>
+      </c>
+      <c r="V86">
+        <v>0.2</v>
+      </c>
+      <c r="W86">
+        <v>0.01296</v>
+      </c>
+      <c r="X86" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y86">
+        <v>64.76300441128581</v>
+      </c>
+      <c r="Z86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87">
+        <v>0.85</v>
+      </c>
+      <c r="B87">
+        <v>0.05873736277770502</v>
+      </c>
+      <c r="C87">
+        <v>0.9861517459434621</v>
+      </c>
+      <c r="D87">
+        <v>4.917151745943462</v>
+      </c>
+      <c r="E87">
+        <v>0.7359999999999998</v>
+      </c>
+      <c r="F87">
+        <v>4.726</v>
+      </c>
+      <c r="G87">
+        <v>0.795</v>
+      </c>
+      <c r="H87">
+        <v>1.57</v>
+      </c>
+      <c r="I87">
+        <v>0</v>
+      </c>
+      <c r="J87">
+        <v>5.76</v>
+      </c>
+      <c r="K87">
+        <v>0.8599999999999994</v>
+      </c>
+      <c r="L87">
+        <v>4.9</v>
+      </c>
+      <c r="M87">
+        <v>0.0765612</v>
+      </c>
+      <c r="N87">
+        <v>4.8234388</v>
+      </c>
+      <c r="O87">
+        <v>0.96468776</v>
+      </c>
+      <c r="P87">
+        <v>3.85875104</v>
+      </c>
+      <c r="Q87">
+        <v>4.718751039999999</v>
+      </c>
+      <c r="R87">
+        <v>5.666666666666666</v>
+      </c>
+      <c r="S87">
+        <v>0.3181424185180334</v>
+      </c>
+      <c r="T87">
+        <v>5.250584409577179</v>
+      </c>
+      <c r="U87">
+        <v>0.0162</v>
+      </c>
+      <c r="V87">
+        <v>0.2</v>
+      </c>
+      <c r="W87">
+        <v>0.01296</v>
+      </c>
+      <c r="X87" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y87">
+        <v>64.00108671232948</v>
+      </c>
+      <c r="Z87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88">
+        <v>0.86</v>
+      </c>
+      <c r="B88">
+        <v>0.05866233298787923</v>
+      </c>
+      <c r="C88">
+        <v>0.9313376654922942</v>
+      </c>
+      <c r="D88">
+        <v>4.917937665492294</v>
+      </c>
+      <c r="E88">
+        <v>0.7915999999999999</v>
+      </c>
+      <c r="F88">
+        <v>4.7816</v>
+      </c>
+      <c r="G88">
+        <v>0.795</v>
+      </c>
+      <c r="H88">
+        <v>1.57</v>
+      </c>
+      <c r="I88">
+        <v>0</v>
+      </c>
+      <c r="J88">
+        <v>5.76</v>
+      </c>
+      <c r="K88">
+        <v>0.8599999999999994</v>
+      </c>
+      <c r="L88">
+        <v>4.9</v>
+      </c>
+      <c r="M88">
+        <v>0.07746192</v>
+      </c>
+      <c r="N88">
+        <v>4.82253808</v>
+      </c>
+      <c r="O88">
+        <v>0.9645076160000001</v>
+      </c>
+      <c r="P88">
+        <v>3.858030464</v>
+      </c>
+      <c r="Q88">
+        <v>4.718030464</v>
+      </c>
+      <c r="R88">
+        <v>6.142857142857142</v>
+      </c>
+      <c r="S88">
+        <v>0.3394052356277087</v>
+      </c>
+      <c r="T88">
+        <v>5.612070427448242</v>
+      </c>
+      <c r="U88">
+        <v>0.0162</v>
+      </c>
+      <c r="V88">
+        <v>0.2</v>
+      </c>
+      <c r="W88">
+        <v>0.01296</v>
+      </c>
+      <c r="X88" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y88">
+        <v>63.25688802962798</v>
+      </c>
+      <c r="Z88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89">
+        <v>0.87</v>
+      </c>
+      <c r="B89">
+        <v>0.05858730319805343</v>
+      </c>
+      <c r="C89">
+        <v>0.8765238363119057</v>
+      </c>
+      <c r="D89">
+        <v>4.918723836311906</v>
+      </c>
+      <c r="E89">
+        <v>0.8472</v>
+      </c>
+      <c r="F89">
+        <v>4.8372</v>
+      </c>
+      <c r="G89">
+        <v>0.795</v>
+      </c>
+      <c r="H89">
+        <v>1.57</v>
+      </c>
+      <c r="I89">
+        <v>0</v>
+      </c>
+      <c r="J89">
+        <v>5.76</v>
+      </c>
+      <c r="K89">
+        <v>0.8599999999999994</v>
+      </c>
+      <c r="L89">
+        <v>4.9</v>
+      </c>
+      <c r="M89">
+        <v>0.07836264</v>
+      </c>
+      <c r="N89">
+        <v>4.82163736</v>
+      </c>
+      <c r="O89">
+        <v>0.9643274720000001</v>
+      </c>
+      <c r="P89">
+        <v>3.857309888000001</v>
+      </c>
+      <c r="Q89">
+        <v>4.717309888</v>
+      </c>
+      <c r="R89">
+        <v>6.692307692307692</v>
+      </c>
+      <c r="S89">
+        <v>0.3639392553696417</v>
+      </c>
+      <c r="T89">
+        <v>6.029169678837929</v>
+      </c>
+      <c r="U89">
+        <v>0.0162</v>
+      </c>
+      <c r="V89">
+        <v>0.2</v>
+      </c>
+      <c r="W89">
+        <v>0.01296</v>
+      </c>
+      <c r="X89" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y89">
+        <v>62.52979736262077</v>
+      </c>
+      <c r="Z89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90">
+        <v>0.88</v>
+      </c>
+      <c r="B90">
+        <v>0.05851227340822764</v>
+      </c>
+      <c r="C90">
+        <v>0.8217102585228195</v>
+      </c>
+      <c r="D90">
+        <v>4.91951025852282</v>
+      </c>
+      <c r="E90">
+        <v>0.9028</v>
+      </c>
+      <c r="F90">
+        <v>4.8928</v>
+      </c>
+      <c r="G90">
+        <v>0.795</v>
+      </c>
+      <c r="H90">
+        <v>1.57</v>
+      </c>
+      <c r="I90">
+        <v>0</v>
+      </c>
+      <c r="J90">
+        <v>5.76</v>
+      </c>
+      <c r="K90">
+        <v>0.8599999999999994</v>
+      </c>
+      <c r="L90">
+        <v>4.9</v>
+      </c>
+      <c r="M90">
+        <v>0.07926336</v>
+      </c>
+      <c r="N90">
+        <v>4.820736640000001</v>
+      </c>
+      <c r="O90">
+        <v>0.9641473280000001</v>
+      </c>
+      <c r="P90">
+        <v>3.856589312000001</v>
+      </c>
+      <c r="Q90">
+        <v>4.716589312</v>
+      </c>
+      <c r="R90">
+        <v>7.333333333333334</v>
+      </c>
+      <c r="S90">
+        <v>0.392562278401897</v>
+      </c>
+      <c r="T90">
+        <v>6.515785472125899</v>
+      </c>
+      <c r="U90">
+        <v>0.0162</v>
+      </c>
+      <c r="V90">
+        <v>0.2</v>
+      </c>
+      <c r="W90">
+        <v>0.01296</v>
+      </c>
+      <c r="X90" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y90">
+        <v>61.81923148350008</v>
+      </c>
+      <c r="Z90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91">
+        <v>0.89</v>
+      </c>
+      <c r="B91">
+        <v>0.05843724361840184</v>
+      </c>
+      <c r="C91">
+        <v>0.7668969322456336</v>
+      </c>
+      <c r="D91">
+        <v>4.920296932245634</v>
+      </c>
+      <c r="E91">
+        <v>0.9584000000000001</v>
+      </c>
+      <c r="F91">
+        <v>4.9484</v>
+      </c>
+      <c r="G91">
+        <v>0.795</v>
+      </c>
+      <c r="H91">
+        <v>1.57</v>
+      </c>
+      <c r="I91">
+        <v>0</v>
+      </c>
+      <c r="J91">
+        <v>5.76</v>
+      </c>
+      <c r="K91">
+        <v>0.8599999999999994</v>
+      </c>
+      <c r="L91">
+        <v>4.9</v>
+      </c>
+      <c r="M91">
+        <v>0.08016408</v>
+      </c>
+      <c r="N91">
+        <v>4.81983592</v>
+      </c>
+      <c r="O91">
+        <v>0.963967184</v>
+      </c>
+      <c r="P91">
+        <v>3.855868736</v>
+      </c>
+      <c r="Q91">
+        <v>4.715868735999999</v>
+      </c>
+      <c r="R91">
+        <v>8.090909090909092</v>
+      </c>
+      <c r="S91">
+        <v>0.4263894874400168</v>
+      </c>
+      <c r="T91">
+        <v>7.090876864193498</v>
+      </c>
+      <c r="U91">
+        <v>0.0162</v>
+      </c>
+      <c r="V91">
+        <v>0.2</v>
+      </c>
+      <c r="W91">
+        <v>0.01296</v>
+      </c>
+      <c r="X91" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y91">
+        <v>61.12463337694389</v>
+      </c>
+      <c r="Z91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92">
+        <v>0.9</v>
+      </c>
+      <c r="B92">
+        <v>0.05836221382857605</v>
+      </c>
+      <c r="C92">
+        <v>0.7120838576010247</v>
+      </c>
+      <c r="D92">
+        <v>4.921083857601025</v>
+      </c>
+      <c r="E92">
+        <v>1.014</v>
+      </c>
+      <c r="F92">
+        <v>5.004</v>
+      </c>
+      <c r="G92">
+        <v>0.795</v>
+      </c>
+      <c r="H92">
+        <v>1.57</v>
+      </c>
+      <c r="I92">
+        <v>0</v>
+      </c>
+      <c r="J92">
+        <v>5.76</v>
+      </c>
+      <c r="K92">
+        <v>0.8599999999999994</v>
+      </c>
+      <c r="L92">
+        <v>4.9</v>
+      </c>
+      <c r="M92">
+        <v>0.08106480000000001</v>
+      </c>
+      <c r="N92">
+        <v>4.8189352</v>
+      </c>
+      <c r="O92">
+        <v>0.9637870400000002</v>
+      </c>
+      <c r="P92">
+        <v>3.85514816</v>
+      </c>
+      <c r="Q92">
+        <v>4.71514816</v>
+      </c>
+      <c r="R92">
+        <v>9.000000000000002</v>
+      </c>
+      <c r="S92">
+        <v>0.4669821382857606</v>
+      </c>
+      <c r="T92">
+        <v>7.780986534674619</v>
+      </c>
+      <c r="U92">
+        <v>0.0162</v>
+      </c>
+      <c r="V92">
+        <v>0.2</v>
+      </c>
+      <c r="W92">
+        <v>0.01296</v>
+      </c>
+      <c r="X92" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y92">
+        <v>60.44547078386673</v>
+      </c>
+      <c r="Z92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93">
+        <v>0.91</v>
+      </c>
+      <c r="B93">
+        <v>0.05828718403875026</v>
+      </c>
+      <c r="C93">
+        <v>0.6572710347097468</v>
+      </c>
+      <c r="D93">
+        <v>4.921871034709747</v>
+      </c>
+      <c r="E93">
+        <v>1.0696</v>
+      </c>
+      <c r="F93">
+        <v>5.059600000000001</v>
+      </c>
+      <c r="G93">
+        <v>0.795</v>
+      </c>
+      <c r="H93">
+        <v>1.57</v>
+      </c>
+      <c r="I93">
+        <v>0</v>
+      </c>
+      <c r="J93">
+        <v>5.76</v>
+      </c>
+      <c r="K93">
+        <v>0.8599999999999994</v>
+      </c>
+      <c r="L93">
+        <v>4.9</v>
+      </c>
+      <c r="M93">
+        <v>0.08196552</v>
+      </c>
+      <c r="N93">
+        <v>4.818034480000001</v>
+      </c>
+      <c r="O93">
+        <v>0.9636068960000002</v>
+      </c>
+      <c r="P93">
+        <v>3.854427584000001</v>
+      </c>
+      <c r="Q93">
+        <v>4.714427584</v>
+      </c>
+      <c r="R93">
+        <v>10.11111111111111</v>
+      </c>
+      <c r="S93">
+        <v>0.5165953782083363</v>
+      </c>
+      <c r="T93">
+        <v>8.624453909707098</v>
+      </c>
+      <c r="U93">
+        <v>0.0162</v>
+      </c>
+      <c r="V93">
+        <v>0.2</v>
+      </c>
+      <c r="W93">
+        <v>0.01296</v>
+      </c>
+      <c r="X93" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y93">
+        <v>59.78123484118689</v>
+      </c>
+      <c r="Z93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94">
+        <v>0.92</v>
+      </c>
+      <c r="B94">
+        <v>0.05821215424892446</v>
+      </c>
+      <c r="C94">
+        <v>0.6024584636926313</v>
+      </c>
+      <c r="D94">
+        <v>4.922658463692632</v>
+      </c>
+      <c r="E94">
+        <v>1.1252</v>
+      </c>
+      <c r="F94">
+        <v>5.115200000000001</v>
+      </c>
+      <c r="G94">
+        <v>0.795</v>
+      </c>
+      <c r="H94">
+        <v>1.57</v>
+      </c>
+      <c r="I94">
+        <v>0</v>
+      </c>
+      <c r="J94">
+        <v>5.76</v>
+      </c>
+      <c r="K94">
+        <v>0.8599999999999994</v>
+      </c>
+      <c r="L94">
+        <v>4.9</v>
+      </c>
+      <c r="M94">
+        <v>0.08286624000000001</v>
+      </c>
+      <c r="N94">
+        <v>4.81713376</v>
+      </c>
+      <c r="O94">
+        <v>0.9634267520000001</v>
+      </c>
+      <c r="P94">
+        <v>3.853707008</v>
+      </c>
+      <c r="Q94">
+        <v>4.713707007999999</v>
+      </c>
+      <c r="R94">
+        <v>11.50000000000001</v>
+      </c>
+      <c r="S94">
+        <v>0.578611928111556</v>
+      </c>
+      <c r="T94">
+        <v>9.678788128497699</v>
+      </c>
+      <c r="U94">
+        <v>0.0162</v>
+      </c>
+      <c r="V94">
+        <v>0.2</v>
+      </c>
+      <c r="W94">
+        <v>0.01296</v>
+      </c>
+      <c r="X94" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y94">
+        <v>59.13143881030441</v>
+      </c>
+      <c r="Z94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95">
+        <v>0.93</v>
+      </c>
+      <c r="B95">
+        <v>0.05813712445909866</v>
+      </c>
+      <c r="C95">
+        <v>0.5476461446705843</v>
+      </c>
+      <c r="D95">
+        <v>4.923446144670585</v>
+      </c>
+      <c r="E95">
+        <v>1.180800000000001</v>
+      </c>
+      <c r="F95">
+        <v>5.170800000000001</v>
+      </c>
+      <c r="G95">
+        <v>0.795</v>
+      </c>
+      <c r="H95">
+        <v>1.57</v>
+      </c>
+      <c r="I95">
+        <v>0</v>
+      </c>
+      <c r="J95">
+        <v>5.76</v>
+      </c>
+      <c r="K95">
+        <v>0.8599999999999994</v>
+      </c>
+      <c r="L95">
+        <v>4.9</v>
+      </c>
+      <c r="M95">
+        <v>0.08376696</v>
+      </c>
+      <c r="N95">
+        <v>4.81623304</v>
+      </c>
+      <c r="O95">
+        <v>0.9632466080000001</v>
+      </c>
+      <c r="P95">
+        <v>3.852986432</v>
+      </c>
+      <c r="Q95">
+        <v>4.712986431999999</v>
+      </c>
+      <c r="R95">
+        <v>13.2857142857143</v>
+      </c>
+      <c r="S95">
+        <v>0.6583474922728384</v>
+      </c>
+      <c r="T95">
+        <v>11.03436069551418</v>
+      </c>
+      <c r="U95">
+        <v>0.0162</v>
+      </c>
+      <c r="V95">
+        <v>0.2</v>
+      </c>
+      <c r="W95">
+        <v>0.01296</v>
+      </c>
+      <c r="X95" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y95">
+        <v>58.49561688761297</v>
+      </c>
+      <c r="Z95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96">
+        <v>0.9400000000000001</v>
+      </c>
+      <c r="B96">
+        <v>0.05806209466927285</v>
+      </c>
+      <c r="C96">
+        <v>0.4928340777645932</v>
+      </c>
+      <c r="D96">
+        <v>4.924234077764594</v>
+      </c>
+      <c r="E96">
+        <v>1.236400000000001</v>
+      </c>
+      <c r="F96">
+        <v>5.226400000000001</v>
+      </c>
+      <c r="G96">
+        <v>0.795</v>
+      </c>
+      <c r="H96">
+        <v>1.57</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>5.76</v>
+      </c>
+      <c r="K96">
+        <v>0.8599999999999994</v>
+      </c>
+      <c r="L96">
+        <v>4.9</v>
+      </c>
+      <c r="M96">
+        <v>0.08466768000000001</v>
+      </c>
+      <c r="N96">
+        <v>4.81533232</v>
+      </c>
+      <c r="O96">
+        <v>0.9630664640000002</v>
+      </c>
+      <c r="P96">
+        <v>3.852265856</v>
+      </c>
+      <c r="Q96">
+        <v>4.712265856</v>
+      </c>
+      <c r="R96">
+        <v>15.66666666666668</v>
+      </c>
+      <c r="S96">
+        <v>0.764661577821215</v>
+      </c>
+      <c r="T96">
+        <v>12.8417907848695</v>
+      </c>
+      <c r="U96">
+        <v>0.0162</v>
+      </c>
+      <c r="V96">
+        <v>0.2</v>
+      </c>
+      <c r="W96">
+        <v>0.01296</v>
+      </c>
+      <c r="X96" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y96">
+        <v>57.87332309093623</v>
+      </c>
+      <c r="Z96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97">
+        <v>0.9500000000000001</v>
+      </c>
+      <c r="B97">
+        <v>0.05798706487944708</v>
+      </c>
+      <c r="C97">
+        <v>0.4380222630957196</v>
+      </c>
+      <c r="D97">
+        <v>4.925022263095721</v>
+      </c>
+      <c r="E97">
+        <v>1.292000000000001</v>
+      </c>
+      <c r="F97">
+        <v>5.282000000000001</v>
+      </c>
+      <c r="G97">
+        <v>0.795</v>
+      </c>
+      <c r="H97">
+        <v>1.57</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+      <c r="J97">
+        <v>5.76</v>
+      </c>
+      <c r="K97">
+        <v>0.8599999999999994</v>
+      </c>
+      <c r="L97">
+        <v>4.9</v>
+      </c>
+      <c r="M97">
+        <v>0.08556840000000002</v>
+      </c>
+      <c r="N97">
+        <v>4.814431600000001</v>
+      </c>
+      <c r="O97">
+        <v>0.9628863200000002</v>
+      </c>
+      <c r="P97">
+        <v>3.851545280000001</v>
+      </c>
+      <c r="Q97">
+        <v>4.71154528</v>
+      </c>
+      <c r="R97">
+        <v>19.00000000000003</v>
+      </c>
+      <c r="S97">
+        <v>0.9135012975889427</v>
+      </c>
+      <c r="T97">
+        <v>15.37219290996695</v>
+      </c>
+      <c r="U97">
+        <v>0.0162</v>
+      </c>
+      <c r="V97">
+        <v>0.2</v>
+      </c>
+      <c r="W97">
+        <v>0.01296</v>
+      </c>
+      <c r="X97" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y97">
+        <v>57.2641302162948</v>
+      </c>
+      <c r="Z97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98">
+        <v>0.96</v>
+      </c>
+      <c r="B98">
+        <v>0.05791203508962128</v>
+      </c>
+      <c r="C98">
+        <v>0.3832107007851064</v>
+      </c>
+      <c r="D98">
+        <v>4.925810700785107</v>
+      </c>
+      <c r="E98">
+        <v>1.3476</v>
+      </c>
+      <c r="F98">
+        <v>5.3376</v>
+      </c>
+      <c r="G98">
+        <v>0.795</v>
+      </c>
+      <c r="H98">
+        <v>1.57</v>
+      </c>
+      <c r="I98">
+        <v>0</v>
+      </c>
+      <c r="J98">
+        <v>5.76</v>
+      </c>
+      <c r="K98">
+        <v>0.8599999999999994</v>
+      </c>
+      <c r="L98">
+        <v>4.9</v>
+      </c>
+      <c r="M98">
+        <v>0.08646912</v>
+      </c>
+      <c r="N98">
+        <v>4.81353088</v>
+      </c>
+      <c r="O98">
+        <v>0.9627061760000001</v>
+      </c>
+      <c r="P98">
+        <v>3.850824704</v>
+      </c>
+      <c r="Q98">
+        <v>4.710824703999999</v>
+      </c>
+      <c r="R98">
+        <v>23.99999999999998</v>
+      </c>
+      <c r="S98">
+        <v>1.136760877240531</v>
+      </c>
+      <c r="T98">
+        <v>19.16779609761306</v>
+      </c>
+      <c r="U98">
+        <v>0.0162</v>
+      </c>
+      <c r="V98">
+        <v>0.2</v>
+      </c>
+      <c r="W98">
+        <v>0.01296</v>
+      </c>
+      <c r="X98" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y98">
+        <v>56.66762885987507</v>
+      </c>
+      <c r="Z98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99">
+        <v>0.97</v>
+      </c>
+      <c r="B99">
+        <v>0.05783700529979548</v>
+      </c>
+      <c r="C99">
+        <v>0.3283993909539689</v>
+      </c>
+      <c r="D99">
+        <v>4.926599390953969</v>
+      </c>
+      <c r="E99">
+        <v>1.4032</v>
+      </c>
+      <c r="F99">
+        <v>5.3932</v>
+      </c>
+      <c r="G99">
+        <v>0.795</v>
+      </c>
+      <c r="H99">
+        <v>1.57</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+      <c r="J99">
+        <v>5.76</v>
+      </c>
+      <c r="K99">
+        <v>0.8599999999999994</v>
+      </c>
+      <c r="L99">
+        <v>4.9</v>
+      </c>
+      <c r="M99">
+        <v>0.08736984</v>
+      </c>
+      <c r="N99">
+        <v>4.81263016</v>
+      </c>
+      <c r="O99">
+        <v>0.9625260320000001</v>
+      </c>
+      <c r="P99">
+        <v>3.850104128</v>
+      </c>
+      <c r="Q99">
+        <v>4.710104127999999</v>
+      </c>
+      <c r="R99">
+        <v>32.33333333333331</v>
+      </c>
+      <c r="S99">
+        <v>1.508860176659848</v>
+      </c>
+      <c r="T99">
+        <v>25.49380141035665</v>
+      </c>
+      <c r="U99">
+        <v>0.0162</v>
+      </c>
+      <c r="V99">
+        <v>0.2</v>
+      </c>
+      <c r="W99">
+        <v>0.01296</v>
+      </c>
+      <c r="X99" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y99">
+        <v>56.08342650049491</v>
+      </c>
+      <c r="Z99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100">
+        <v>0.98</v>
+      </c>
+      <c r="B100">
+        <v>0.05776197550996969</v>
+      </c>
+      <c r="C100">
+        <v>0.2735883337236045</v>
+      </c>
+      <c r="D100">
+        <v>4.927388333723605</v>
+      </c>
+      <c r="E100">
+        <v>1.4588</v>
+      </c>
+      <c r="F100">
+        <v>5.4488</v>
+      </c>
+      <c r="G100">
+        <v>0.795</v>
+      </c>
+      <c r="H100">
+        <v>1.57</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>5.76</v>
+      </c>
+      <c r="K100">
+        <v>0.8599999999999994</v>
+      </c>
+      <c r="L100">
+        <v>4.9</v>
+      </c>
+      <c r="M100">
+        <v>0.08827056</v>
+      </c>
+      <c r="N100">
+        <v>4.811729440000001</v>
+      </c>
+      <c r="O100">
+        <v>0.9623458880000002</v>
+      </c>
+      <c r="P100">
+        <v>3.849383552</v>
+      </c>
+      <c r="Q100">
+        <v>4.709383552</v>
+      </c>
+      <c r="R100">
+        <v>48.99999999999996</v>
+      </c>
+      <c r="S100">
+        <v>2.253058775498483</v>
+      </c>
+      <c r="T100">
+        <v>38.14581203584382</v>
+      </c>
+      <c r="U100">
+        <v>0.0162</v>
+      </c>
+      <c r="V100">
+        <v>0.2</v>
+      </c>
+      <c r="W100">
+        <v>0.01296</v>
+      </c>
+      <c r="X100" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y100">
+        <v>55.51114663824497</v>
+      </c>
+      <c r="Z100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101">
+        <v>0.99</v>
+      </c>
+      <c r="B101">
+        <v>0.05768694572014389</v>
+      </c>
+      <c r="C101">
+        <v>0.2187775292153855</v>
+      </c>
+      <c r="D101">
+        <v>4.928177529215386</v>
+      </c>
+      <c r="E101">
+        <v>1.5144</v>
+      </c>
+      <c r="F101">
+        <v>5.5044</v>
+      </c>
+      <c r="G101">
+        <v>0.795</v>
+      </c>
+      <c r="H101">
+        <v>1.57</v>
+      </c>
+      <c r="I101">
+        <v>0</v>
+      </c>
+      <c r="J101">
+        <v>5.76</v>
+      </c>
+      <c r="K101">
+        <v>0.8599999999999994</v>
+      </c>
+      <c r="L101">
+        <v>4.9</v>
+      </c>
+      <c r="M101">
+        <v>0.08917128000000001</v>
+      </c>
+      <c r="N101">
+        <v>4.81082872</v>
+      </c>
+      <c r="O101">
+        <v>0.962165744</v>
+      </c>
+      <c r="P101">
+        <v>3.848662976</v>
+      </c>
+      <c r="Q101">
+        <v>4.708662975999999</v>
+      </c>
+      <c r="R101">
+        <v>98.99999999999991</v>
+      </c>
+      <c r="S101">
+        <v>4.485654572014385</v>
+      </c>
+      <c r="T101">
+        <v>76.10184391230533</v>
+      </c>
+      <c r="U101">
+        <v>0.0162</v>
+      </c>
+      <c r="V101">
+        <v>0.2</v>
+      </c>
+      <c r="W101">
+        <v>0.01296</v>
+      </c>
+      <c r="X101" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y101">
+        <v>54.95042798533339</v>
+      </c>
+      <c r="Z101">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
